--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1727,6 +1727,6418 @@
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111936847</v>
+      </c>
+      <c r="B11" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>449952.5031349848</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7087532.694708571</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111936804</v>
+      </c>
+      <c r="B12" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>449911.1877795978</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7088173.888399968</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111936826</v>
+      </c>
+      <c r="B13" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>450286.4637555202</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7088075.023661445</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111936815</v>
+      </c>
+      <c r="B14" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>450254.4076567063</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7088082.576232391</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111936810</v>
+      </c>
+      <c r="B15" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>450076.6474004715</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7088074.402316166</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111936846</v>
+      </c>
+      <c r="B16" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>449993.8992946697</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7087723.105873908</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111936837</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>450059.2030462694</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7087644.138522012</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111936851</v>
+      </c>
+      <c r="B18" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>449977.2699648383</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7087785.886029115</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111936887</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>450114.0964737512</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7087630.935839922</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111936890</v>
+      </c>
+      <c r="B20" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>450090.7181781353</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7087906.458368747</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111936811</v>
+      </c>
+      <c r="B21" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>450080.4394533724</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7088091.069257133</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111936840</v>
+      </c>
+      <c r="B22" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>450107.5862887118</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7087830.910808215</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111936843</v>
+      </c>
+      <c r="B23" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>450060.9834812499</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7087810.963207304</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111936809</v>
+      </c>
+      <c r="B24" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>450018.9795980158</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7088106.576729243</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111936886</v>
+      </c>
+      <c r="B25" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>450160.5140639331</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7087694.473437991</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111936849</v>
+      </c>
+      <c r="B26" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>449923.672939889</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7087659.511824413</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111936838</v>
+      </c>
+      <c r="B27" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>450064.5987260632</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7087678.39231076</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111936884</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>450409.0315130352</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7087882.468395516</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111936807</v>
+      </c>
+      <c r="B29" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>450003.0879358895</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7088105.069833261</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111936836</v>
+      </c>
+      <c r="B30" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>450058.0687601124</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7087628.307317851</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111936817</v>
+      </c>
+      <c r="B31" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>450278.9580704377</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7088212.921176435</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111936839</v>
+      </c>
+      <c r="B32" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>450131.6327386007</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7087763.171492323</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111936883</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>450282.2178587588</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7088112.947729391</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111936845</v>
+      </c>
+      <c r="B34" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>449982.3754608733</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7087774.35822109</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111936880</v>
+      </c>
+      <c r="B35" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>450225.4440332729</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7088145.984062891</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111936825</v>
+      </c>
+      <c r="B36" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>450327.3170750244</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7088177.378980519</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>111936835</v>
+      </c>
+      <c r="B37" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>450184.677463644</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7087744.717036478</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111936829</v>
+      </c>
+      <c r="B38" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>450355.152160185</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7088014.946387996</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111936831</v>
+      </c>
+      <c r="B39" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>450354.221952226</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7088011.879717183</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111936803</v>
+      </c>
+      <c r="B40" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>449957.2247330564</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7088103.60200156</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>111936805</v>
+      </c>
+      <c r="B41" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>449946.0831624712</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7088178.612199004</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111936832</v>
+      </c>
+      <c r="B42" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>450285.6401275547</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7087828.95766044</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111936784</v>
+      </c>
+      <c r="B43" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>450333.9476851027</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7088178.594271541</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>111936848</v>
+      </c>
+      <c r="B44" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>449910.8357987376</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7087656.195201878</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111936834</v>
+      </c>
+      <c r="B45" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>450265.96987074</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7087811.66093865</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>111936814</v>
+      </c>
+      <c r="B46" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>450114.5720794405</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7088075.55827428</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111936821</v>
+      </c>
+      <c r="B47" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>450360.2931049832</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7088255.647101439</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111936882</v>
+      </c>
+      <c r="B48" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>450302.2134820353</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7088261.851095661</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111936891</v>
+      </c>
+      <c r="B49" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>450088.3923611997</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7087843.543314508</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>111936842</v>
+      </c>
+      <c r="B50" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>450087.0031922986</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7087894.631646507</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111936820</v>
+      </c>
+      <c r="B51" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>450351.9978939942</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7088260.620581007</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>111936844</v>
+      </c>
+      <c r="B52" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>450042.0527216683</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7087784.851202786</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>111936813</v>
+      </c>
+      <c r="B53" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>450091.3716223672</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7088085.61253533</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>111936889</v>
+      </c>
+      <c r="B54" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>450085.2810093437</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7087869.566356667</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>111936816</v>
+      </c>
+      <c r="B55" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>450284.259858286</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7088185.98605396</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>111936888</v>
+      </c>
+      <c r="B56" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>450116.8988930489</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7087723.784426957</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111936885</v>
+      </c>
+      <c r="B57" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>450183.0624540736</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7087781.722905395</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>111936881</v>
+      </c>
+      <c r="B58" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>450283.4763324714</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7088219.892198123</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>111936828</v>
+      </c>
+      <c r="B59" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>450330.1459388774</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7088022.386462688</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>111936827</v>
+      </c>
+      <c r="B60" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>450309.9591882866</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7088027.98938123</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>111936850</v>
+      </c>
+      <c r="B61" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>449959.508293822</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7087777.805452998</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>111936787</v>
+      </c>
+      <c r="B62" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>449921.5801251211</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7088162.277260567</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>111936806</v>
+      </c>
+      <c r="B63" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>449925.5459391113</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7088162.213792897</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>111936824</v>
+      </c>
+      <c r="B64" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>450381.9209948868</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7088202.043031318</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -1729,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936847</v>
+        <v>111936880</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,38 +1745,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449952.5031349848</v>
+        <v>450225.4440332729</v>
       </c>
       <c r="R11" t="n">
-        <v>7087532.694708571</v>
+        <v>7088145.984062891</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1819,11 +1815,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1850,7 +1841,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936804</v>
+        <v>111936817</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1886,11 +1877,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1898,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449911.1877795978</v>
+        <v>450278.9580704377</v>
       </c>
       <c r="R12" t="n">
-        <v>7088173.888399968</v>
+        <v>7088212.921176435</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1975,7 +1962,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936826</v>
+        <v>111936803</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2019,10 +2006,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>450286.4637555202</v>
+        <v>449957.2247330564</v>
       </c>
       <c r="R13" t="n">
-        <v>7088075.023661445</v>
+        <v>7088103.60200156</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2069,7 +2056,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2096,10 +2083,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936815</v>
+        <v>111936886</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2112,38 +2099,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>450254.4076567063</v>
+        <v>450160.5140639331</v>
       </c>
       <c r="R14" t="n">
-        <v>7088082.576232391</v>
+        <v>7087694.473437991</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2186,11 +2169,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2217,7 +2195,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936810</v>
+        <v>111936849</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2261,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>450076.6474004715</v>
+        <v>449923.672939889</v>
       </c>
       <c r="R15" t="n">
-        <v>7088074.402316166</v>
+        <v>7087659.511824413</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2311,7 +2289,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2338,7 +2316,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936846</v>
+        <v>111936811</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2382,10 +2360,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449993.8992946697</v>
+        <v>450080.4394533724</v>
       </c>
       <c r="R16" t="n">
-        <v>7087723.105873908</v>
+        <v>7088091.069257133</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2432,7 +2410,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2459,7 +2437,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936837</v>
+        <v>111936838</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2503,10 +2481,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>450059.2030462694</v>
+        <v>450064.5987260632</v>
       </c>
       <c r="R17" t="n">
-        <v>7087644.138522012</v>
+        <v>7087678.39231076</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2553,7 +2531,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2580,7 +2558,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936851</v>
+        <v>111936820</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2624,10 +2602,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>449977.2699648383</v>
+        <v>450351.9978939942</v>
       </c>
       <c r="R18" t="n">
-        <v>7087785.886029115</v>
+        <v>7088260.620581007</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2674,7 +2652,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2701,10 +2679,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936887</v>
+        <v>111936844</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2717,34 +2695,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>450114.0964737512</v>
+        <v>450042.0527216683</v>
       </c>
       <c r="R19" t="n">
-        <v>7087630.935839922</v>
+        <v>7087784.851202786</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2787,6 +2769,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2813,10 +2800,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936890</v>
+        <v>111936845</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,34 +2816,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>450090.7181781353</v>
+        <v>449982.3754608733</v>
       </c>
       <c r="R20" t="n">
-        <v>7087906.458368747</v>
+        <v>7087774.35822109</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2899,6 +2890,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2925,7 +2921,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936811</v>
+        <v>111936843</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2969,10 +2965,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>450080.4394533724</v>
+        <v>450060.9834812499</v>
       </c>
       <c r="R21" t="n">
-        <v>7088091.069257133</v>
+        <v>7087810.963207304</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3019,7 +3015,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3046,7 +3042,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111936840</v>
+        <v>111936807</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3090,10 +3086,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>450107.5862887118</v>
+        <v>450003.0879358895</v>
       </c>
       <c r="R22" t="n">
-        <v>7087830.910808215</v>
+        <v>7088105.069833261</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3140,7 +3136,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3167,7 +3163,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111936843</v>
+        <v>111936851</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3211,10 +3207,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>450060.9834812499</v>
+        <v>449977.2699648383</v>
       </c>
       <c r="R23" t="n">
-        <v>7087810.963207304</v>
+        <v>7087785.886029115</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3261,7 +3257,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3288,10 +3284,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111936809</v>
+        <v>111936890</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3304,38 +3300,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>450018.9795980158</v>
+        <v>450090.7181781353</v>
       </c>
       <c r="R24" t="n">
-        <v>7088106.576729243</v>
+        <v>7087906.458368747</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3378,11 +3370,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3409,7 +3396,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936886</v>
+        <v>111936883</v>
       </c>
       <c r="B25" t="n">
         <v>89423</v>
@@ -3449,10 +3436,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450160.5140639331</v>
+        <v>450282.2178587588</v>
       </c>
       <c r="R25" t="n">
-        <v>7087694.473437991</v>
+        <v>7088112.947729391</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3521,7 +3508,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936849</v>
+        <v>111936846</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3565,10 +3552,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>449923.672939889</v>
+        <v>449993.8992946697</v>
       </c>
       <c r="R26" t="n">
-        <v>7087659.511824413</v>
+        <v>7087723.105873908</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3642,7 +3629,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936838</v>
+        <v>111936839</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3686,10 +3673,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>450064.5987260632</v>
+        <v>450131.6327386007</v>
       </c>
       <c r="R27" t="n">
-        <v>7087678.39231076</v>
+        <v>7087763.171492323</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3736,7 +3723,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3875,10 +3862,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936807</v>
+        <v>111936885</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3891,38 +3878,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>450003.0879358895</v>
+        <v>450183.0624540736</v>
       </c>
       <c r="R29" t="n">
-        <v>7088105.069833261</v>
+        <v>7087781.722905395</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3965,11 +3948,6 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3996,7 +3974,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936836</v>
+        <v>111936847</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -4040,10 +4018,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>450058.0687601124</v>
+        <v>449952.5031349848</v>
       </c>
       <c r="R30" t="n">
-        <v>7087628.307317851</v>
+        <v>7087532.694708571</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4090,7 +4068,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4117,7 +4095,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936817</v>
+        <v>111936828</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4161,10 +4139,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>450278.9580704377</v>
+        <v>450330.1459388774</v>
       </c>
       <c r="R31" t="n">
-        <v>7088212.921176435</v>
+        <v>7088022.386462688</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4211,7 +4189,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4238,10 +4216,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111936839</v>
+        <v>111936889</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4254,38 +4232,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>450131.6327386007</v>
+        <v>450085.2810093437</v>
       </c>
       <c r="R32" t="n">
-        <v>7087763.171492323</v>
+        <v>7087869.566356667</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4328,11 +4302,6 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4359,10 +4328,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111936883</v>
+        <v>111936850</v>
       </c>
       <c r="B33" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4375,34 +4344,38 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>450282.2178587588</v>
+        <v>449959.508293822</v>
       </c>
       <c r="R33" t="n">
-        <v>7088112.947729391</v>
+        <v>7087777.805452998</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4445,6 +4418,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4471,7 +4449,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111936845</v>
+        <v>111936815</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4515,10 +4493,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>449982.3754608733</v>
+        <v>450254.4076567063</v>
       </c>
       <c r="R34" t="n">
-        <v>7087774.35822109</v>
+        <v>7088082.576232391</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4565,7 +4543,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4592,10 +4570,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111936880</v>
+        <v>111936832</v>
       </c>
       <c r="B35" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4608,34 +4586,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>450225.4440332729</v>
+        <v>450285.6401275547</v>
       </c>
       <c r="R35" t="n">
-        <v>7088145.984062891</v>
+        <v>7087828.95766044</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4678,6 +4660,11 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4704,7 +4691,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111936825</v>
+        <v>111936806</v>
       </c>
       <c r="B36" t="n">
         <v>56398</v>
@@ -4748,10 +4735,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>450327.3170750244</v>
+        <v>449925.5459391113</v>
       </c>
       <c r="R36" t="n">
-        <v>7088177.378980519</v>
+        <v>7088162.213792897</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4825,7 +4812,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111936835</v>
+        <v>111936840</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4869,10 +4856,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>450184.677463644</v>
+        <v>450107.5862887118</v>
       </c>
       <c r="R37" t="n">
-        <v>7087744.717036478</v>
+        <v>7087830.910808215</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4919,7 +4906,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4946,7 +4933,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111936829</v>
+        <v>111936813</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4990,10 +4977,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>450355.152160185</v>
+        <v>450091.3716223672</v>
       </c>
       <c r="R38" t="n">
-        <v>7088014.946387996</v>
+        <v>7088085.61253533</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5040,7 +5027,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5067,7 +5054,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111936831</v>
+        <v>111936826</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5111,10 +5098,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>450354.221952226</v>
+        <v>450286.4637555202</v>
       </c>
       <c r="R39" t="n">
-        <v>7088011.879717183</v>
+        <v>7088075.023661445</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5161,7 +5148,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5188,7 +5175,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111936803</v>
+        <v>111936827</v>
       </c>
       <c r="B40" t="n">
         <v>56398</v>
@@ -5232,10 +5219,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>449957.2247330564</v>
+        <v>450309.9591882866</v>
       </c>
       <c r="R40" t="n">
-        <v>7088103.60200156</v>
+        <v>7088027.98938123</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5309,7 +5296,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111936805</v>
+        <v>111936825</v>
       </c>
       <c r="B41" t="n">
         <v>56398</v>
@@ -5353,10 +5340,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>449946.0831624712</v>
+        <v>450327.3170750244</v>
       </c>
       <c r="R41" t="n">
-        <v>7088178.612199004</v>
+        <v>7088177.378980519</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5403,7 +5390,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5430,7 +5417,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111936832</v>
+        <v>111936814</v>
       </c>
       <c r="B42" t="n">
         <v>56398</v>
@@ -5474,10 +5461,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>450285.6401275547</v>
+        <v>450114.5720794405</v>
       </c>
       <c r="R42" t="n">
-        <v>7087828.95766044</v>
+        <v>7088075.55827428</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5551,10 +5538,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111936784</v>
+        <v>111936821</v>
       </c>
       <c r="B43" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5563,38 +5550,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>450333.9476851027</v>
+        <v>450360.2931049832</v>
       </c>
       <c r="R43" t="n">
-        <v>7088178.594271541</v>
+        <v>7088255.647101439</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5637,6 +5628,11 @@
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5663,7 +5659,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111936848</v>
+        <v>111936804</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5699,7 +5695,11 @@
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>449910.8357987376</v>
+        <v>449911.1877795978</v>
       </c>
       <c r="R44" t="n">
-        <v>7087656.195201878</v>
+        <v>7088173.888399968</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111936834</v>
+        <v>111936824</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5828,10 +5828,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>450265.96987074</v>
+        <v>450381.9209948868</v>
       </c>
       <c r="R45" t="n">
-        <v>7087811.66093865</v>
+        <v>7088202.043031318</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5905,7 +5905,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111936814</v>
+        <v>111936835</v>
       </c>
       <c r="B46" t="n">
         <v>56398</v>
@@ -5949,10 +5949,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>450114.5720794405</v>
+        <v>450184.677463644</v>
       </c>
       <c r="R46" t="n">
-        <v>7088075.55827428</v>
+        <v>7087744.717036478</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6026,10 +6026,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111936821</v>
+        <v>111936888</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6042,38 +6042,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>450360.2931049832</v>
+        <v>450116.8988930489</v>
       </c>
       <c r="R47" t="n">
-        <v>7088255.647101439</v>
+        <v>7087723.784426957</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6116,11 +6112,6 @@
       <c r="AB47" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6147,7 +6138,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111936882</v>
+        <v>111936881</v>
       </c>
       <c r="B48" t="n">
         <v>89423</v>
@@ -6187,10 +6178,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>450302.2134820353</v>
+        <v>450283.4763324714</v>
       </c>
       <c r="R48" t="n">
-        <v>7088261.851095661</v>
+        <v>7088219.892198123</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6259,10 +6250,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111936891</v>
+        <v>111936834</v>
       </c>
       <c r="B49" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6275,34 +6266,38 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>450088.3923611997</v>
+        <v>450265.96987074</v>
       </c>
       <c r="R49" t="n">
-        <v>7087843.543314508</v>
+        <v>7087811.66093865</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6345,6 +6340,11 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6371,7 +6371,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111936842</v>
+        <v>111936829</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6415,10 +6415,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>450087.0031922986</v>
+        <v>450355.152160185</v>
       </c>
       <c r="R50" t="n">
-        <v>7087894.631646507</v>
+        <v>7088014.946387996</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111936820</v>
+        <v>111936848</v>
       </c>
       <c r="B51" t="n">
         <v>56398</v>
@@ -6536,10 +6536,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>450351.9978939942</v>
+        <v>449910.8357987376</v>
       </c>
       <c r="R51" t="n">
-        <v>7088260.620581007</v>
+        <v>7087656.195201878</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6613,7 +6613,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111936844</v>
+        <v>111936816</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6657,10 +6657,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>450042.0527216683</v>
+        <v>450284.259858286</v>
       </c>
       <c r="R52" t="n">
-        <v>7087784.851202786</v>
+        <v>7088185.98605396</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6734,10 +6734,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111936813</v>
+        <v>111936891</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6750,38 +6750,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>450091.3716223672</v>
+        <v>450088.3923611997</v>
       </c>
       <c r="R53" t="n">
-        <v>7088085.61253533</v>
+        <v>7087843.543314508</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6824,11 +6820,6 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6855,7 +6846,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111936889</v>
+        <v>111936887</v>
       </c>
       <c r="B54" t="n">
         <v>89423</v>
@@ -6895,10 +6886,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>450085.2810093437</v>
+        <v>450114.0964737512</v>
       </c>
       <c r="R54" t="n">
-        <v>7087869.566356667</v>
+        <v>7087630.935839922</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6967,10 +6958,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111936816</v>
+        <v>111936882</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6983,38 +6974,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>450284.259858286</v>
+        <v>450302.2134820353</v>
       </c>
       <c r="R55" t="n">
-        <v>7088185.98605396</v>
+        <v>7088261.851095661</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7057,11 +7044,6 @@
       <c r="AB55" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7088,10 +7070,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111936888</v>
+        <v>111936831</v>
       </c>
       <c r="B56" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7104,34 +7086,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>450116.8988930489</v>
+        <v>450354.221952226</v>
       </c>
       <c r="R56" t="n">
-        <v>7087723.784426957</v>
+        <v>7088011.879717183</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7174,6 +7160,11 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7200,10 +7191,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111936885</v>
+        <v>111936787</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7216,21 +7207,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7240,10 +7231,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>450183.0624540736</v>
+        <v>449921.5801251211</v>
       </c>
       <c r="R57" t="n">
-        <v>7087781.722905395</v>
+        <v>7088162.277260567</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7312,10 +7303,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111936881</v>
+        <v>111936805</v>
       </c>
       <c r="B58" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7328,34 +7319,38 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>450283.4763324714</v>
+        <v>449946.0831624712</v>
       </c>
       <c r="R58" t="n">
-        <v>7088219.892198123</v>
+        <v>7088178.612199004</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7398,6 +7393,11 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7424,7 +7424,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111936828</v>
+        <v>111936810</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7468,10 +7468,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>450330.1459388774</v>
+        <v>450076.6474004715</v>
       </c>
       <c r="R59" t="n">
-        <v>7088022.386462688</v>
+        <v>7088074.402316166</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7545,7 +7545,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111936827</v>
+        <v>111936837</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7589,10 +7589,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>450309.9591882866</v>
+        <v>450059.2030462694</v>
       </c>
       <c r="R60" t="n">
-        <v>7088027.98938123</v>
+        <v>7087644.138522012</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7666,7 +7666,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111936850</v>
+        <v>111936809</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>449959.508293822</v>
+        <v>450018.9795980158</v>
       </c>
       <c r="R61" t="n">
-        <v>7087777.805452998</v>
+        <v>7088106.576729243</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7787,10 +7787,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111936787</v>
+        <v>111936842</v>
       </c>
       <c r="B62" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7803,34 +7803,38 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>449921.5801251211</v>
+        <v>450087.0031922986</v>
       </c>
       <c r="R62" t="n">
-        <v>7088162.277260567</v>
+        <v>7087894.631646507</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7873,6 +7877,11 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7899,10 +7908,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111936806</v>
+        <v>111936784</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7911,42 +7920,38 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>449925.5459391113</v>
+        <v>450333.9476851027</v>
       </c>
       <c r="R63" t="n">
-        <v>7088162.213792897</v>
+        <v>7088178.594271541</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7989,11 +7994,6 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8020,7 +8020,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111936824</v>
+        <v>111936836</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8064,10 +8064,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>450381.9209948868</v>
+        <v>450058.0687601124</v>
       </c>
       <c r="R64" t="n">
-        <v>7088202.043031318</v>
+        <v>7087628.307317851</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -1841,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936817</v>
+        <v>111936886</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,38 +1857,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>450278.9580704377</v>
+        <v>450160.5140639331</v>
       </c>
       <c r="R12" t="n">
-        <v>7088212.921176435</v>
+        <v>7087694.473437991</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1931,11 +1927,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1962,7 +1953,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936803</v>
+        <v>111936849</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2006,10 +1997,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449957.2247330564</v>
+        <v>449923.672939889</v>
       </c>
       <c r="R13" t="n">
-        <v>7088103.60200156</v>
+        <v>7087659.511824413</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2083,10 +2074,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936886</v>
+        <v>111936817</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2099,34 +2090,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>450160.5140639331</v>
+        <v>450278.9580704377</v>
       </c>
       <c r="R14" t="n">
-        <v>7087694.473437991</v>
+        <v>7088212.921176435</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2169,6 +2164,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2195,7 +2195,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936849</v>
+        <v>111936803</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449923.672939889</v>
+        <v>449957.2247330564</v>
       </c>
       <c r="R15" t="n">
-        <v>7087659.511824413</v>
+        <v>7088103.60200156</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -1729,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936880</v>
+        <v>111936849</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,34 +1745,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>450225.4440332729</v>
+        <v>449923.672939889</v>
       </c>
       <c r="R11" t="n">
-        <v>7088145.984062891</v>
+        <v>7087659.511824413</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1815,6 +1819,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1841,7 +1850,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936886</v>
+        <v>111936888</v>
       </c>
       <c r="B12" t="n">
         <v>89423</v>
@@ -1881,10 +1890,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>450160.5140639331</v>
+        <v>450116.8988930489</v>
       </c>
       <c r="R12" t="n">
-        <v>7087694.473437991</v>
+        <v>7087723.784426957</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1953,10 +1962,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936849</v>
+        <v>111936883</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,38 +1978,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449923.672939889</v>
+        <v>450282.2178587588</v>
       </c>
       <c r="R13" t="n">
-        <v>7087659.511824413</v>
+        <v>7088112.947729391</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2043,11 +2048,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2074,10 +2074,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936817</v>
+        <v>111936885</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,38 +2090,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>450278.9580704377</v>
+        <v>450183.0624540736</v>
       </c>
       <c r="R14" t="n">
-        <v>7088212.921176435</v>
+        <v>7087781.722905395</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2164,11 +2160,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2195,7 +2186,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936803</v>
+        <v>111936809</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2239,10 +2230,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449957.2247330564</v>
+        <v>450018.9795980158</v>
       </c>
       <c r="R15" t="n">
-        <v>7088103.60200156</v>
+        <v>7088106.576729243</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2316,7 +2307,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936811</v>
+        <v>111936829</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2360,10 +2351,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>450080.4394533724</v>
+        <v>450355.152160185</v>
       </c>
       <c r="R16" t="n">
-        <v>7088091.069257133</v>
+        <v>7088014.946387996</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2410,7 +2401,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2437,10 +2428,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936838</v>
+        <v>111936887</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2453,38 +2444,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>450064.5987260632</v>
+        <v>450114.0964737512</v>
       </c>
       <c r="R17" t="n">
-        <v>7087678.39231076</v>
+        <v>7087630.935839922</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2527,11 +2514,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2558,7 +2540,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936820</v>
+        <v>111936831</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2602,10 +2584,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>450351.9978939942</v>
+        <v>450354.221952226</v>
       </c>
       <c r="R18" t="n">
-        <v>7088260.620581007</v>
+        <v>7088011.879717183</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2652,7 +2634,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2679,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936844</v>
+        <v>111936889</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2695,38 +2677,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>450042.0527216683</v>
+        <v>450085.2810093437</v>
       </c>
       <c r="R19" t="n">
-        <v>7087784.851202786</v>
+        <v>7087869.566356667</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2769,11 +2747,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2800,7 +2773,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936845</v>
+        <v>111936843</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2844,10 +2817,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449982.3754608733</v>
+        <v>450060.9834812499</v>
       </c>
       <c r="R20" t="n">
-        <v>7087774.35822109</v>
+        <v>7087810.963207304</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2894,7 +2867,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2921,10 +2894,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936843</v>
+        <v>111936891</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2937,38 +2910,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>450060.9834812499</v>
+        <v>450088.3923611997</v>
       </c>
       <c r="R21" t="n">
-        <v>7087810.963207304</v>
+        <v>7087843.543314508</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3011,11 +2980,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3042,7 +3006,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111936807</v>
+        <v>111936810</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3086,10 +3050,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>450003.0879358895</v>
+        <v>450076.6474004715</v>
       </c>
       <c r="R22" t="n">
-        <v>7088105.069833261</v>
+        <v>7088074.402316166</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3136,7 +3100,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3163,7 +3127,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111936851</v>
+        <v>111936814</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3207,10 +3171,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>449977.2699648383</v>
+        <v>450114.5720794405</v>
       </c>
       <c r="R23" t="n">
-        <v>7087785.886029115</v>
+        <v>7088075.55827428</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3257,7 +3221,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3284,10 +3248,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111936890</v>
+        <v>111936824</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3300,34 +3264,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>450090.7181781353</v>
+        <v>450381.9209948868</v>
       </c>
       <c r="R24" t="n">
-        <v>7087906.458368747</v>
+        <v>7088202.043031318</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3370,6 +3338,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3396,10 +3369,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936883</v>
+        <v>111936820</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3412,34 +3385,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450282.2178587588</v>
+        <v>450351.9978939942</v>
       </c>
       <c r="R25" t="n">
-        <v>7088112.947729391</v>
+        <v>7088260.620581007</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3482,6 +3459,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3508,7 +3490,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936846</v>
+        <v>111936817</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3552,10 +3534,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>449993.8992946697</v>
+        <v>450278.9580704377</v>
       </c>
       <c r="R26" t="n">
-        <v>7087723.105873908</v>
+        <v>7088212.921176435</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3602,7 +3584,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3629,7 +3611,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936839</v>
+        <v>111936850</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3673,10 +3655,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>450131.6327386007</v>
+        <v>449959.508293822</v>
       </c>
       <c r="R27" t="n">
-        <v>7087763.171492323</v>
+        <v>7087777.805452998</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3750,7 +3732,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936884</v>
+        <v>111936886</v>
       </c>
       <c r="B28" t="n">
         <v>89423</v>
@@ -3790,10 +3772,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>450409.0315130352</v>
+        <v>450160.5140639331</v>
       </c>
       <c r="R28" t="n">
-        <v>7087882.468395516</v>
+        <v>7087694.473437991</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3862,10 +3844,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936885</v>
+        <v>111936846</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3878,34 +3860,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>450183.0624540736</v>
+        <v>449993.8992946697</v>
       </c>
       <c r="R29" t="n">
-        <v>7087781.722905395</v>
+        <v>7087723.105873908</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3948,6 +3934,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3974,7 +3965,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936847</v>
+        <v>111936838</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -4018,10 +4009,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>449952.5031349848</v>
+        <v>450064.5987260632</v>
       </c>
       <c r="R30" t="n">
-        <v>7087532.694708571</v>
+        <v>7087678.39231076</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4068,7 +4059,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4095,10 +4086,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936828</v>
+        <v>111936884</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4111,38 +4102,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>450330.1459388774</v>
+        <v>450409.0315130352</v>
       </c>
       <c r="R31" t="n">
-        <v>7088022.386462688</v>
+        <v>7087882.468395516</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4185,11 +4172,6 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4216,10 +4198,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111936889</v>
+        <v>111936816</v>
       </c>
       <c r="B32" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4232,34 +4214,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>450085.2810093437</v>
+        <v>450284.259858286</v>
       </c>
       <c r="R32" t="n">
-        <v>7087869.566356667</v>
+        <v>7088185.98605396</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4302,6 +4288,11 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4328,7 +4319,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111936850</v>
+        <v>111936804</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4364,7 +4355,11 @@
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4372,10 +4367,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>449959.508293822</v>
+        <v>449911.1877795978</v>
       </c>
       <c r="R33" t="n">
-        <v>7087777.805452998</v>
+        <v>7088173.888399968</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4449,7 +4444,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111936815</v>
+        <v>111936828</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4493,10 +4488,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>450254.4076567063</v>
+        <v>450330.1459388774</v>
       </c>
       <c r="R34" t="n">
-        <v>7088082.576232391</v>
+        <v>7088022.386462688</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4543,7 +4538,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4570,10 +4565,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111936832</v>
+        <v>111936890</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4586,38 +4581,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>450285.6401275547</v>
+        <v>450090.7181781353</v>
       </c>
       <c r="R35" t="n">
-        <v>7087828.95766044</v>
+        <v>7087906.458368747</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4660,11 +4651,6 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4691,7 +4677,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111936806</v>
+        <v>111936832</v>
       </c>
       <c r="B36" t="n">
         <v>56398</v>
@@ -4735,10 +4721,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>449925.5459391113</v>
+        <v>450285.6401275547</v>
       </c>
       <c r="R36" t="n">
-        <v>7088162.213792897</v>
+        <v>7087828.95766044</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4785,7 +4771,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4812,7 +4798,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111936840</v>
+        <v>111936806</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4856,10 +4842,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>450107.5862887118</v>
+        <v>449925.5459391113</v>
       </c>
       <c r="R37" t="n">
-        <v>7087830.910808215</v>
+        <v>7088162.213792897</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4906,7 +4892,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4933,7 +4919,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111936813</v>
+        <v>111936840</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4977,10 +4963,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>450091.3716223672</v>
+        <v>450107.5862887118</v>
       </c>
       <c r="R38" t="n">
-        <v>7088085.61253533</v>
+        <v>7087830.910808215</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5027,7 +5013,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5054,7 +5040,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111936826</v>
+        <v>111936813</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5098,10 +5084,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>450286.4637555202</v>
+        <v>450091.3716223672</v>
       </c>
       <c r="R39" t="n">
-        <v>7088075.023661445</v>
+        <v>7088085.61253533</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5148,7 +5134,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5175,10 +5161,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111936827</v>
+        <v>111936880</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5191,38 +5177,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>450309.9591882866</v>
+        <v>450225.4440332729</v>
       </c>
       <c r="R40" t="n">
-        <v>7088027.98938123</v>
+        <v>7088145.984062891</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5265,11 +5247,6 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5296,7 +5273,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111936825</v>
+        <v>111936807</v>
       </c>
       <c r="B41" t="n">
         <v>56398</v>
@@ -5340,10 +5317,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>450327.3170750244</v>
+        <v>450003.0879358895</v>
       </c>
       <c r="R41" t="n">
-        <v>7088177.378980519</v>
+        <v>7088105.069833261</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5417,7 +5394,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111936814</v>
+        <v>111936803</v>
       </c>
       <c r="B42" t="n">
         <v>56398</v>
@@ -5461,10 +5438,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>450114.5720794405</v>
+        <v>449957.2247330564</v>
       </c>
       <c r="R42" t="n">
-        <v>7088075.55827428</v>
+        <v>7088103.60200156</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5538,10 +5515,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111936821</v>
+        <v>111936787</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5554,38 +5531,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>450360.2931049832</v>
+        <v>449921.5801251211</v>
       </c>
       <c r="R43" t="n">
-        <v>7088255.647101439</v>
+        <v>7088162.277260567</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5628,11 +5601,6 @@
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5659,7 +5627,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111936804</v>
+        <v>111936851</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5695,11 +5663,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5707,10 +5671,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>449911.1877795978</v>
+        <v>449977.2699648383</v>
       </c>
       <c r="R44" t="n">
-        <v>7088173.888399968</v>
+        <v>7087785.886029115</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5784,7 +5748,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111936824</v>
+        <v>111936839</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5828,10 +5792,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>450381.9209948868</v>
+        <v>450131.6327386007</v>
       </c>
       <c r="R45" t="n">
-        <v>7088202.043031318</v>
+        <v>7087763.171492323</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5878,7 +5842,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5905,10 +5869,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111936835</v>
+        <v>111936882</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5921,38 +5885,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>450184.677463644</v>
+        <v>450302.2134820353</v>
       </c>
       <c r="R46" t="n">
-        <v>7087744.717036478</v>
+        <v>7088261.851095661</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5995,11 +5955,6 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6026,10 +5981,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111936888</v>
+        <v>111936825</v>
       </c>
       <c r="B47" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6042,34 +5997,38 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>450116.8988930489</v>
+        <v>450327.3170750244</v>
       </c>
       <c r="R47" t="n">
-        <v>7087723.784426957</v>
+        <v>7088177.378980519</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6112,6 +6071,11 @@
       <c r="AB47" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6138,10 +6102,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111936881</v>
+        <v>111936842</v>
       </c>
       <c r="B48" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6154,34 +6118,38 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>450283.4763324714</v>
+        <v>450087.0031922986</v>
       </c>
       <c r="R48" t="n">
-        <v>7088219.892198123</v>
+        <v>7087894.631646507</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6224,6 +6192,11 @@
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6371,7 +6344,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111936829</v>
+        <v>111936821</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6415,10 +6388,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>450355.152160185</v>
+        <v>450360.2931049832</v>
       </c>
       <c r="R50" t="n">
-        <v>7088014.946387996</v>
+        <v>7088255.647101439</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6465,7 +6438,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6492,7 +6465,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111936848</v>
+        <v>111936835</v>
       </c>
       <c r="B51" t="n">
         <v>56398</v>
@@ -6536,10 +6509,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>449910.8357987376</v>
+        <v>450184.677463644</v>
       </c>
       <c r="R51" t="n">
-        <v>7087656.195201878</v>
+        <v>7087744.717036478</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6613,7 +6586,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111936816</v>
+        <v>111936848</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6657,10 +6630,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>450284.259858286</v>
+        <v>449910.8357987376</v>
       </c>
       <c r="R52" t="n">
-        <v>7088185.98605396</v>
+        <v>7087656.195201878</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6707,7 +6680,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6734,10 +6707,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111936891</v>
+        <v>111936826</v>
       </c>
       <c r="B53" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6750,34 +6723,38 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>450088.3923611997</v>
+        <v>450286.4637555202</v>
       </c>
       <c r="R53" t="n">
-        <v>7087843.543314508</v>
+        <v>7088075.023661445</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6820,6 +6797,11 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6846,7 +6828,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111936887</v>
+        <v>111936881</v>
       </c>
       <c r="B54" t="n">
         <v>89423</v>
@@ -6886,10 +6868,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>450114.0964737512</v>
+        <v>450283.4763324714</v>
       </c>
       <c r="R54" t="n">
-        <v>7087630.935839922</v>
+        <v>7088219.892198123</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6958,10 +6940,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111936882</v>
+        <v>111936784</v>
       </c>
       <c r="B55" t="n">
-        <v>89423</v>
+        <v>89369</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6970,25 +6952,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6998,10 +6980,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>450302.2134820353</v>
+        <v>450333.9476851027</v>
       </c>
       <c r="R55" t="n">
-        <v>7088261.851095661</v>
+        <v>7088178.594271541</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7070,7 +7052,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111936831</v>
+        <v>111936837</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7114,10 +7096,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>450354.221952226</v>
+        <v>450059.2030462694</v>
       </c>
       <c r="R56" t="n">
-        <v>7088011.879717183</v>
+        <v>7087644.138522012</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7191,10 +7173,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111936787</v>
+        <v>111936845</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7207,34 +7189,38 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>449921.5801251211</v>
+        <v>449982.3754608733</v>
       </c>
       <c r="R57" t="n">
-        <v>7088162.277260567</v>
+        <v>7087774.35822109</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7277,6 +7263,11 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7424,7 +7415,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111936810</v>
+        <v>111936815</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7468,10 +7459,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>450076.6474004715</v>
+        <v>450254.4076567063</v>
       </c>
       <c r="R59" t="n">
-        <v>7088074.402316166</v>
+        <v>7088082.576232391</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7518,7 +7509,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7545,7 +7536,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111936837</v>
+        <v>111936844</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7589,10 +7580,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>450059.2030462694</v>
+        <v>450042.0527216683</v>
       </c>
       <c r="R60" t="n">
-        <v>7087644.138522012</v>
+        <v>7087784.851202786</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7639,7 +7630,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7666,7 +7657,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111936809</v>
+        <v>111936827</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7710,10 +7701,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>450018.9795980158</v>
+        <v>450309.9591882866</v>
       </c>
       <c r="R61" t="n">
-        <v>7088106.576729243</v>
+        <v>7088027.98938123</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7787,7 +7778,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111936842</v>
+        <v>111936811</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7831,10 +7822,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>450087.0031922986</v>
+        <v>450080.4394533724</v>
       </c>
       <c r="R62" t="n">
-        <v>7087894.631646507</v>
+        <v>7088091.069257133</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7881,7 +7872,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7908,10 +7899,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111936784</v>
+        <v>111936847</v>
       </c>
       <c r="B63" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7920,38 +7911,42 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>450333.9476851027</v>
+        <v>449952.5031349848</v>
       </c>
       <c r="R63" t="n">
-        <v>7088178.594271541</v>
+        <v>7087532.694708571</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7994,6 +7989,11 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -1729,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936849</v>
+        <v>111936887</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,38 +1745,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449923.672939889</v>
+        <v>450114.0964737512</v>
       </c>
       <c r="R11" t="n">
-        <v>7087659.511824413</v>
+        <v>7087630.935839922</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1819,11 +1815,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1850,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936888</v>
+        <v>111936835</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,34 +1857,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>450116.8988930489</v>
+        <v>450184.677463644</v>
       </c>
       <c r="R12" t="n">
-        <v>7087723.784426957</v>
+        <v>7087744.717036478</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1936,6 +1931,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1962,10 +1962,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936883</v>
+        <v>111936814</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1978,34 +1978,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>450282.2178587588</v>
+        <v>450114.5720794405</v>
       </c>
       <c r="R13" t="n">
-        <v>7088112.947729391</v>
+        <v>7088075.55827428</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2048,6 +2052,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2074,10 +2083,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936885</v>
+        <v>111936817</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,34 +2099,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>450183.0624540736</v>
+        <v>450278.9580704377</v>
       </c>
       <c r="R14" t="n">
-        <v>7087781.722905395</v>
+        <v>7088212.921176435</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2160,6 +2173,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2186,7 +2204,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936809</v>
+        <v>111936834</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2230,10 +2248,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>450018.9795980158</v>
+        <v>450265.96987074</v>
       </c>
       <c r="R15" t="n">
-        <v>7088106.576729243</v>
+        <v>7087811.66093865</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2280,7 +2298,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2307,7 +2325,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936829</v>
+        <v>111936848</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2351,10 +2369,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>450355.152160185</v>
+        <v>449910.8357987376</v>
       </c>
       <c r="R16" t="n">
-        <v>7088014.946387996</v>
+        <v>7087656.195201878</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2401,7 +2419,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2428,7 +2446,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936887</v>
+        <v>111936881</v>
       </c>
       <c r="B17" t="n">
         <v>89423</v>
@@ -2468,10 +2486,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>450114.0964737512</v>
+        <v>450283.4763324714</v>
       </c>
       <c r="R17" t="n">
-        <v>7087630.935839922</v>
+        <v>7088219.892198123</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2540,7 +2558,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936831</v>
+        <v>111936837</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2584,10 +2602,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>450354.221952226</v>
+        <v>450059.2030462694</v>
       </c>
       <c r="R18" t="n">
-        <v>7088011.879717183</v>
+        <v>7087644.138522012</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2661,10 +2679,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936889</v>
+        <v>111936839</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,34 +2695,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>450085.2810093437</v>
+        <v>450131.6327386007</v>
       </c>
       <c r="R19" t="n">
-        <v>7087869.566356667</v>
+        <v>7087763.171492323</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2747,6 +2769,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2773,7 +2800,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936843</v>
+        <v>111936811</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2817,10 +2844,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>450060.9834812499</v>
+        <v>450080.4394533724</v>
       </c>
       <c r="R20" t="n">
-        <v>7087810.963207304</v>
+        <v>7088091.069257133</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2867,7 +2894,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2894,10 +2921,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936891</v>
+        <v>111936842</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2910,34 +2937,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>450088.3923611997</v>
+        <v>450087.0031922986</v>
       </c>
       <c r="R21" t="n">
-        <v>7087843.543314508</v>
+        <v>7087894.631646507</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2980,6 +3011,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3006,7 +3042,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111936810</v>
+        <v>111936821</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3050,10 +3086,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>450076.6474004715</v>
+        <v>450360.2931049832</v>
       </c>
       <c r="R22" t="n">
-        <v>7088074.402316166</v>
+        <v>7088255.647101439</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3100,7 +3136,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3127,7 +3163,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111936814</v>
+        <v>111936806</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3171,10 +3207,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>450114.5720794405</v>
+        <v>449925.5459391113</v>
       </c>
       <c r="R23" t="n">
-        <v>7088075.55827428</v>
+        <v>7088162.213792897</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3221,7 +3257,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3248,7 +3284,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111936824</v>
+        <v>111936816</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3292,10 +3328,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>450381.9209948868</v>
+        <v>450284.259858286</v>
       </c>
       <c r="R24" t="n">
-        <v>7088202.043031318</v>
+        <v>7088185.98605396</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3369,7 +3405,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936820</v>
+        <v>111936828</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3413,10 +3449,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450351.9978939942</v>
+        <v>450330.1459388774</v>
       </c>
       <c r="R25" t="n">
-        <v>7088260.620581007</v>
+        <v>7088022.386462688</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3463,7 +3499,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3490,7 +3526,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936817</v>
+        <v>111936826</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3534,10 +3570,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>450278.9580704377</v>
+        <v>450286.4637555202</v>
       </c>
       <c r="R26" t="n">
-        <v>7088212.921176435</v>
+        <v>7088075.023661445</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3584,7 +3620,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3611,7 +3647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936850</v>
+        <v>111936838</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3655,10 +3691,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>449959.508293822</v>
+        <v>450064.5987260632</v>
       </c>
       <c r="R27" t="n">
-        <v>7087777.805452998</v>
+        <v>7087678.39231076</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3705,7 +3741,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3732,7 +3768,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936886</v>
+        <v>111936888</v>
       </c>
       <c r="B28" t="n">
         <v>89423</v>
@@ -3772,10 +3808,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>450160.5140639331</v>
+        <v>450116.8988930489</v>
       </c>
       <c r="R28" t="n">
-        <v>7087694.473437991</v>
+        <v>7087723.784426957</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3844,7 +3880,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936846</v>
+        <v>111936807</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -3888,10 +3924,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>449993.8992946697</v>
+        <v>450003.0879358895</v>
       </c>
       <c r="R29" t="n">
-        <v>7087723.105873908</v>
+        <v>7088105.069833261</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3938,7 +3974,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3965,7 +4001,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936838</v>
+        <v>111936805</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -4009,10 +4045,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>450064.5987260632</v>
+        <v>449946.0831624712</v>
       </c>
       <c r="R30" t="n">
-        <v>7087678.39231076</v>
+        <v>7088178.612199004</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4059,7 +4095,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4086,10 +4122,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936884</v>
+        <v>111936813</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4102,34 +4138,38 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>450409.0315130352</v>
+        <v>450091.3716223672</v>
       </c>
       <c r="R31" t="n">
-        <v>7087882.468395516</v>
+        <v>7088085.61253533</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4172,6 +4212,11 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4198,7 +4243,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111936816</v>
+        <v>111936843</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4242,10 +4287,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>450284.259858286</v>
+        <v>450060.9834812499</v>
       </c>
       <c r="R32" t="n">
-        <v>7088185.98605396</v>
+        <v>7087810.963207304</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4319,10 +4364,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111936804</v>
+        <v>111936784</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4331,46 +4376,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>449911.1877795978</v>
+        <v>450333.9476851027</v>
       </c>
       <c r="R33" t="n">
-        <v>7088173.888399968</v>
+        <v>7088178.594271541</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4413,11 +4450,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4444,7 +4476,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111936828</v>
+        <v>111936809</v>
       </c>
       <c r="B34" t="n">
         <v>56398</v>
@@ -4488,10 +4520,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>450330.1459388774</v>
+        <v>450018.9795980158</v>
       </c>
       <c r="R34" t="n">
-        <v>7088022.386462688</v>
+        <v>7088106.576729243</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4565,10 +4597,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111936890</v>
+        <v>111936844</v>
       </c>
       <c r="B35" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4581,34 +4613,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>450090.7181781353</v>
+        <v>450042.0527216683</v>
       </c>
       <c r="R35" t="n">
-        <v>7087906.458368747</v>
+        <v>7087784.851202786</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4651,6 +4687,11 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4677,7 +4718,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111936832</v>
+        <v>111936849</v>
       </c>
       <c r="B36" t="n">
         <v>56398</v>
@@ -4721,10 +4762,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>450285.6401275547</v>
+        <v>449923.672939889</v>
       </c>
       <c r="R36" t="n">
-        <v>7087828.95766044</v>
+        <v>7087659.511824413</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4798,7 +4839,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111936806</v>
+        <v>111936810</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4842,10 +4883,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>449925.5459391113</v>
+        <v>450076.6474004715</v>
       </c>
       <c r="R37" t="n">
-        <v>7088162.213792897</v>
+        <v>7088074.402316166</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4892,7 +4933,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4919,10 +4960,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111936840</v>
+        <v>111936885</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4935,38 +4976,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>450107.5862887118</v>
+        <v>450183.0624540736</v>
       </c>
       <c r="R38" t="n">
-        <v>7087830.910808215</v>
+        <v>7087781.722905395</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5009,11 +5046,6 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5040,10 +5072,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111936813</v>
+        <v>111936891</v>
       </c>
       <c r="B39" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5056,38 +5088,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>450091.3716223672</v>
+        <v>450088.3923611997</v>
       </c>
       <c r="R39" t="n">
-        <v>7088085.61253533</v>
+        <v>7087843.543314508</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5130,11 +5158,6 @@
       <c r="AB39" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5161,10 +5184,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111936880</v>
+        <v>111936831</v>
       </c>
       <c r="B40" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5177,34 +5200,38 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>450225.4440332729</v>
+        <v>450354.221952226</v>
       </c>
       <c r="R40" t="n">
-        <v>7088145.984062891</v>
+        <v>7088011.879717183</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5247,6 +5274,11 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5273,10 +5305,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111936807</v>
+        <v>111936883</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5289,38 +5321,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>450003.0879358895</v>
+        <v>450282.2178587588</v>
       </c>
       <c r="R41" t="n">
-        <v>7088105.069833261</v>
+        <v>7088112.947729391</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5363,11 +5391,6 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5394,7 +5417,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111936803</v>
+        <v>111936815</v>
       </c>
       <c r="B42" t="n">
         <v>56398</v>
@@ -5438,10 +5461,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>449957.2247330564</v>
+        <v>450254.4076567063</v>
       </c>
       <c r="R42" t="n">
-        <v>7088103.60200156</v>
+        <v>7088082.576232391</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5488,7 +5511,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5515,10 +5538,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111936787</v>
+        <v>111936803</v>
       </c>
       <c r="B43" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5531,34 +5554,38 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>449921.5801251211</v>
+        <v>449957.2247330564</v>
       </c>
       <c r="R43" t="n">
-        <v>7088162.277260567</v>
+        <v>7088103.60200156</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5601,6 +5628,11 @@
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5627,7 +5659,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111936851</v>
+        <v>111936829</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5671,10 +5703,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>449977.2699648383</v>
+        <v>450355.152160185</v>
       </c>
       <c r="R44" t="n">
-        <v>7087785.886029115</v>
+        <v>7088014.946387996</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5721,7 +5753,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5748,7 +5780,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111936839</v>
+        <v>111936850</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5792,10 +5824,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>450131.6327386007</v>
+        <v>449959.508293822</v>
       </c>
       <c r="R45" t="n">
-        <v>7087763.171492323</v>
+        <v>7087777.805452998</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5869,10 +5901,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111936882</v>
+        <v>111936851</v>
       </c>
       <c r="B46" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5885,34 +5917,38 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>450302.2134820353</v>
+        <v>449977.2699648383</v>
       </c>
       <c r="R46" t="n">
-        <v>7088261.851095661</v>
+        <v>7087785.886029115</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5955,6 +5991,11 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5981,7 +6022,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111936825</v>
+        <v>111936847</v>
       </c>
       <c r="B47" t="n">
         <v>56398</v>
@@ -6025,10 +6066,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>450327.3170750244</v>
+        <v>449952.5031349848</v>
       </c>
       <c r="R47" t="n">
-        <v>7088177.378980519</v>
+        <v>7087532.694708571</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6102,7 +6143,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111936842</v>
+        <v>111936827</v>
       </c>
       <c r="B48" t="n">
         <v>56398</v>
@@ -6146,10 +6187,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>450087.0031922986</v>
+        <v>450309.9591882866</v>
       </c>
       <c r="R48" t="n">
-        <v>7087894.631646507</v>
+        <v>7088027.98938123</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6196,7 +6237,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6223,7 +6264,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111936834</v>
+        <v>111936820</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6267,10 +6308,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>450265.96987074</v>
+        <v>450351.9978939942</v>
       </c>
       <c r="R49" t="n">
-        <v>7087811.66093865</v>
+        <v>7088260.620581007</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6317,7 +6358,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6344,7 +6385,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111936821</v>
+        <v>111936825</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6388,10 +6429,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>450360.2931049832</v>
+        <v>450327.3170750244</v>
       </c>
       <c r="R50" t="n">
-        <v>7088255.647101439</v>
+        <v>7088177.378980519</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6438,7 +6479,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6465,7 +6506,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111936835</v>
+        <v>111936836</v>
       </c>
       <c r="B51" t="n">
         <v>56398</v>
@@ -6509,10 +6550,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>450184.677463644</v>
+        <v>450058.0687601124</v>
       </c>
       <c r="R51" t="n">
-        <v>7087744.717036478</v>
+        <v>7087628.307317851</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6559,7 +6600,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6586,7 +6627,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111936848</v>
+        <v>111936845</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6630,10 +6671,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>449910.8357987376</v>
+        <v>449982.3754608733</v>
       </c>
       <c r="R52" t="n">
-        <v>7087656.195201878</v>
+        <v>7087774.35822109</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6680,7 +6721,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6707,7 +6748,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111936826</v>
+        <v>111936832</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6751,10 +6792,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>450286.4637555202</v>
+        <v>450285.6401275547</v>
       </c>
       <c r="R53" t="n">
-        <v>7088075.023661445</v>
+        <v>7087828.95766044</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6801,7 +6842,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6828,7 +6869,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111936881</v>
+        <v>111936890</v>
       </c>
       <c r="B54" t="n">
         <v>89423</v>
@@ -6868,10 +6909,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>450283.4763324714</v>
+        <v>450090.7181781353</v>
       </c>
       <c r="R54" t="n">
-        <v>7088219.892198123</v>
+        <v>7087906.458368747</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6940,10 +6981,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111936784</v>
+        <v>111936882</v>
       </c>
       <c r="B55" t="n">
-        <v>89369</v>
+        <v>89423</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6952,25 +6993,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6980,10 +7021,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>450333.9476851027</v>
+        <v>450302.2134820353</v>
       </c>
       <c r="R55" t="n">
-        <v>7088178.594271541</v>
+        <v>7088261.851095661</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7052,10 +7093,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111936837</v>
+        <v>111936787</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7068,38 +7109,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>450059.2030462694</v>
+        <v>449921.5801251211</v>
       </c>
       <c r="R56" t="n">
-        <v>7087644.138522012</v>
+        <v>7088162.277260567</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7142,11 +7179,6 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7173,7 +7205,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111936845</v>
+        <v>111936846</v>
       </c>
       <c r="B57" t="n">
         <v>56398</v>
@@ -7217,10 +7249,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>449982.3754608733</v>
+        <v>449993.8992946697</v>
       </c>
       <c r="R57" t="n">
-        <v>7087774.35822109</v>
+        <v>7087723.105873908</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7294,7 +7326,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111936805</v>
+        <v>111936840</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7338,10 +7370,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>449946.0831624712</v>
+        <v>450107.5862887118</v>
       </c>
       <c r="R58" t="n">
-        <v>7088178.612199004</v>
+        <v>7087830.910808215</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7388,7 +7420,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7415,7 +7447,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111936815</v>
+        <v>111936824</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7459,10 +7491,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>450254.4076567063</v>
+        <v>450381.9209948868</v>
       </c>
       <c r="R59" t="n">
-        <v>7088082.576232391</v>
+        <v>7088202.043031318</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7536,10 +7568,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111936844</v>
+        <v>111936886</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7552,38 +7584,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>450042.0527216683</v>
+        <v>450160.5140639331</v>
       </c>
       <c r="R60" t="n">
-        <v>7087784.851202786</v>
+        <v>7087694.473437991</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7626,11 +7654,6 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7657,10 +7680,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111936827</v>
+        <v>111936884</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7673,38 +7696,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>450309.9591882866</v>
+        <v>450409.0315130352</v>
       </c>
       <c r="R61" t="n">
-        <v>7088027.98938123</v>
+        <v>7087882.468395516</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7747,11 +7766,6 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7778,7 +7792,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111936811</v>
+        <v>111936804</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7814,7 +7828,11 @@
       <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7822,10 +7840,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>450080.4394533724</v>
+        <v>449911.1877795978</v>
       </c>
       <c r="R62" t="n">
-        <v>7088091.069257133</v>
+        <v>7088173.888399968</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7899,10 +7917,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111936847</v>
+        <v>111936880</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7915,38 +7933,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>449952.5031349848</v>
+        <v>450225.4440332729</v>
       </c>
       <c r="R63" t="n">
-        <v>7087532.694708571</v>
+        <v>7088145.984062891</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7989,11 +8003,6 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8020,10 +8029,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111936836</v>
+        <v>111936889</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8036,38 +8045,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>450058.0687601124</v>
+        <v>450085.2810093437</v>
       </c>
       <c r="R64" t="n">
-        <v>7087628.307317851</v>
+        <v>7087869.566356667</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8110,11 +8115,6 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -1729,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936887</v>
+        <v>111936850</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,34 +1745,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>450114.0964737512</v>
+        <v>449959.508293822</v>
       </c>
       <c r="R11" t="n">
-        <v>7087630.935839922</v>
+        <v>7087777.805452998</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1815,6 +1819,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1841,7 +1850,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936835</v>
+        <v>111936851</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1885,10 +1894,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>450184.677463644</v>
+        <v>449977.2699648383</v>
       </c>
       <c r="R12" t="n">
-        <v>7087744.717036478</v>
+        <v>7087785.886029115</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1962,10 +1971,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936814</v>
+        <v>111936880</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1978,38 +1987,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>450114.5720794405</v>
+        <v>450225.4440332729</v>
       </c>
       <c r="R13" t="n">
-        <v>7088075.55827428</v>
+        <v>7088145.984062891</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2052,11 +2057,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2083,7 +2083,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936817</v>
+        <v>111936834</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>450278.9580704377</v>
+        <v>450265.96987074</v>
       </c>
       <c r="R14" t="n">
-        <v>7088212.921176435</v>
+        <v>7087811.66093865</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936834</v>
+        <v>111936831</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>450265.96987074</v>
+        <v>450354.221952226</v>
       </c>
       <c r="R15" t="n">
-        <v>7087811.66093865</v>
+        <v>7088011.879717183</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936848</v>
+        <v>111936784</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2337,42 +2337,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449910.8357987376</v>
+        <v>450333.9476851027</v>
       </c>
       <c r="R16" t="n">
-        <v>7087656.195201878</v>
+        <v>7088178.594271541</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2415,11 +2411,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2446,10 +2437,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936881</v>
+        <v>111936837</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2462,34 +2453,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>450283.4763324714</v>
+        <v>450059.2030462694</v>
       </c>
       <c r="R17" t="n">
-        <v>7088219.892198123</v>
+        <v>7087644.138522012</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2532,6 +2527,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2558,7 +2558,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936837</v>
+        <v>111936807</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2602,10 +2602,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>450059.2030462694</v>
+        <v>450003.0879358895</v>
       </c>
       <c r="R18" t="n">
-        <v>7087644.138522012</v>
+        <v>7088105.069833261</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2679,7 +2679,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936839</v>
+        <v>111936821</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2723,10 +2723,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>450131.6327386007</v>
+        <v>450360.2931049832</v>
       </c>
       <c r="R19" t="n">
-        <v>7087763.171492323</v>
+        <v>7088255.647101439</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2800,10 +2800,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936811</v>
+        <v>111936887</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2816,38 +2816,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>450080.4394533724</v>
+        <v>450114.0964737512</v>
       </c>
       <c r="R20" t="n">
-        <v>7088091.069257133</v>
+        <v>7087630.935839922</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2890,11 +2886,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2921,7 +2912,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936842</v>
+        <v>111936843</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2965,10 +2956,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>450087.0031922986</v>
+        <v>450060.9834812499</v>
       </c>
       <c r="R21" t="n">
-        <v>7087894.631646507</v>
+        <v>7087810.963207304</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3042,7 +3033,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111936821</v>
+        <v>111936845</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3086,10 +3077,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>450360.2931049832</v>
+        <v>449982.3754608733</v>
       </c>
       <c r="R22" t="n">
-        <v>7088255.647101439</v>
+        <v>7087774.35822109</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3163,7 +3154,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111936806</v>
+        <v>111936847</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3207,10 +3198,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>449925.5459391113</v>
+        <v>449952.5031349848</v>
       </c>
       <c r="R23" t="n">
-        <v>7088162.213792897</v>
+        <v>7087532.694708571</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3284,7 +3275,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111936816</v>
+        <v>111936804</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3320,7 +3311,11 @@
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3328,10 +3323,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>450284.259858286</v>
+        <v>449911.1877795978</v>
       </c>
       <c r="R24" t="n">
-        <v>7088185.98605396</v>
+        <v>7088173.888399968</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3378,7 +3373,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3405,7 +3400,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936828</v>
+        <v>111936835</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3449,10 +3444,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450330.1459388774</v>
+        <v>450184.677463644</v>
       </c>
       <c r="R25" t="n">
-        <v>7088022.386462688</v>
+        <v>7087744.717036478</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3499,7 +3494,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3526,7 +3521,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936826</v>
+        <v>111936803</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3570,10 +3565,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>450286.4637555202</v>
+        <v>449957.2247330564</v>
       </c>
       <c r="R26" t="n">
-        <v>7088075.023661445</v>
+        <v>7088103.60200156</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3620,7 +3615,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3768,10 +3763,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936888</v>
+        <v>111936846</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3784,34 +3779,38 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>450116.8988930489</v>
+        <v>449993.8992946697</v>
       </c>
       <c r="R28" t="n">
-        <v>7087723.784426957</v>
+        <v>7087723.105873908</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3854,6 +3853,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3880,7 +3884,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936807</v>
+        <v>111936811</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -3924,10 +3928,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>450003.0879358895</v>
+        <v>450080.4394533724</v>
       </c>
       <c r="R29" t="n">
-        <v>7088105.069833261</v>
+        <v>7088091.069257133</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3974,7 +3978,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4001,7 +4005,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936805</v>
+        <v>111936824</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -4045,10 +4049,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>449946.0831624712</v>
+        <v>450381.9209948868</v>
       </c>
       <c r="R30" t="n">
-        <v>7088178.612199004</v>
+        <v>7088202.043031318</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4095,7 +4099,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4122,10 +4126,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936813</v>
+        <v>111936882</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4138,38 +4142,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>450091.3716223672</v>
+        <v>450302.2134820353</v>
       </c>
       <c r="R31" t="n">
-        <v>7088085.61253533</v>
+        <v>7088261.851095661</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4212,11 +4212,6 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4243,10 +4238,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111936843</v>
+        <v>111936787</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4259,38 +4254,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>450060.9834812499</v>
+        <v>449921.5801251211</v>
       </c>
       <c r="R32" t="n">
-        <v>7087810.963207304</v>
+        <v>7088162.277260567</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4333,11 +4324,6 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4364,10 +4350,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111936784</v>
+        <v>111936817</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4376,38 +4362,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>450333.9476851027</v>
+        <v>450278.9580704377</v>
       </c>
       <c r="R33" t="n">
-        <v>7088178.594271541</v>
+        <v>7088212.921176435</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4450,6 +4440,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4476,10 +4471,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111936809</v>
+        <v>111936884</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4492,38 +4487,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>450018.9795980158</v>
+        <v>450409.0315130352</v>
       </c>
       <c r="R34" t="n">
-        <v>7088106.576729243</v>
+        <v>7087882.468395516</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4566,11 +4557,6 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4597,7 +4583,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111936844</v>
+        <v>111936849</v>
       </c>
       <c r="B35" t="n">
         <v>56398</v>
@@ -4641,10 +4627,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>450042.0527216683</v>
+        <v>449923.672939889</v>
       </c>
       <c r="R35" t="n">
-        <v>7087784.851202786</v>
+        <v>7087659.511824413</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4718,10 +4704,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111936849</v>
+        <v>111936883</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4734,38 +4720,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>449923.672939889</v>
+        <v>450282.2178587588</v>
       </c>
       <c r="R36" t="n">
-        <v>7087659.511824413</v>
+        <v>7088112.947729391</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4808,11 +4790,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4839,7 +4816,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111936810</v>
+        <v>111936806</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4883,10 +4860,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>450076.6474004715</v>
+        <v>449925.5459391113</v>
       </c>
       <c r="R37" t="n">
-        <v>7088074.402316166</v>
+        <v>7088162.213792897</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4933,7 +4910,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4960,10 +4937,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111936885</v>
+        <v>111936805</v>
       </c>
       <c r="B38" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4976,34 +4953,38 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>450183.0624540736</v>
+        <v>449946.0831624712</v>
       </c>
       <c r="R38" t="n">
-        <v>7087781.722905395</v>
+        <v>7088178.612199004</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5046,6 +5027,11 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5072,10 +5058,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111936891</v>
+        <v>111936826</v>
       </c>
       <c r="B39" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5088,34 +5074,38 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>450088.3923611997</v>
+        <v>450286.4637555202</v>
       </c>
       <c r="R39" t="n">
-        <v>7087843.543314508</v>
+        <v>7088075.023661445</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5158,6 +5148,11 @@
       <c r="AB39" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5184,10 +5179,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111936831</v>
+        <v>111936885</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5200,38 +5195,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>450354.221952226</v>
+        <v>450183.0624540736</v>
       </c>
       <c r="R40" t="n">
-        <v>7088011.879717183</v>
+        <v>7087781.722905395</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5274,11 +5265,6 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5305,10 +5291,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111936883</v>
+        <v>111936816</v>
       </c>
       <c r="B41" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5321,34 +5307,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>450282.2178587588</v>
+        <v>450284.259858286</v>
       </c>
       <c r="R41" t="n">
-        <v>7088112.947729391</v>
+        <v>7088185.98605396</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5391,6 +5381,11 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5417,7 +5412,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111936815</v>
+        <v>111936820</v>
       </c>
       <c r="B42" t="n">
         <v>56398</v>
@@ -5461,10 +5456,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>450254.4076567063</v>
+        <v>450351.9978939942</v>
       </c>
       <c r="R42" t="n">
-        <v>7088082.576232391</v>
+        <v>7088260.620581007</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5538,7 +5533,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111936803</v>
+        <v>111936813</v>
       </c>
       <c r="B43" t="n">
         <v>56398</v>
@@ -5582,10 +5577,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>449957.2247330564</v>
+        <v>450091.3716223672</v>
       </c>
       <c r="R43" t="n">
-        <v>7088103.60200156</v>
+        <v>7088085.61253533</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5632,7 +5627,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5659,10 +5654,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111936829</v>
+        <v>111936881</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5675,38 +5670,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>450355.152160185</v>
+        <v>450283.4763324714</v>
       </c>
       <c r="R44" t="n">
-        <v>7088014.946387996</v>
+        <v>7088219.892198123</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5749,11 +5740,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5780,7 +5766,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111936850</v>
+        <v>111936814</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5824,10 +5810,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>449959.508293822</v>
+        <v>450114.5720794405</v>
       </c>
       <c r="R45" t="n">
-        <v>7087777.805452998</v>
+        <v>7088075.55827428</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5874,7 +5860,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5901,10 +5887,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111936851</v>
+        <v>111936886</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5917,38 +5903,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>449977.2699648383</v>
+        <v>450160.5140639331</v>
       </c>
       <c r="R46" t="n">
-        <v>7087785.886029115</v>
+        <v>7087694.473437991</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5991,11 +5973,6 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6022,7 +5999,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111936847</v>
+        <v>111936844</v>
       </c>
       <c r="B47" t="n">
         <v>56398</v>
@@ -6066,10 +6043,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>449952.5031349848</v>
+        <v>450042.0527216683</v>
       </c>
       <c r="R47" t="n">
-        <v>7087532.694708571</v>
+        <v>7087784.851202786</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6116,7 +6093,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6143,7 +6120,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111936827</v>
+        <v>111936848</v>
       </c>
       <c r="B48" t="n">
         <v>56398</v>
@@ -6187,10 +6164,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>450309.9591882866</v>
+        <v>449910.8357987376</v>
       </c>
       <c r="R48" t="n">
-        <v>7088027.98938123</v>
+        <v>7087656.195201878</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6237,7 +6214,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6264,7 +6241,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111936820</v>
+        <v>111936810</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6308,10 +6285,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>450351.9978939942</v>
+        <v>450076.6474004715</v>
       </c>
       <c r="R49" t="n">
-        <v>7088260.620581007</v>
+        <v>7088074.402316166</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6358,7 +6335,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6385,7 +6362,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111936825</v>
+        <v>111936815</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6429,10 +6406,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>450327.3170750244</v>
+        <v>450254.4076567063</v>
       </c>
       <c r="R50" t="n">
-        <v>7088177.378980519</v>
+        <v>7088082.576232391</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6506,7 +6483,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111936836</v>
+        <v>111936840</v>
       </c>
       <c r="B51" t="n">
         <v>56398</v>
@@ -6550,10 +6527,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>450058.0687601124</v>
+        <v>450107.5862887118</v>
       </c>
       <c r="R51" t="n">
-        <v>7087628.307317851</v>
+        <v>7087830.910808215</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6627,7 +6604,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111936845</v>
+        <v>111936836</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6671,10 +6648,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>449982.3754608733</v>
+        <v>450058.0687601124</v>
       </c>
       <c r="R52" t="n">
-        <v>7087774.35822109</v>
+        <v>7087628.307317851</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6748,10 +6725,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111936832</v>
+        <v>111936888</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6764,38 +6741,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>450285.6401275547</v>
+        <v>450116.8988930489</v>
       </c>
       <c r="R53" t="n">
-        <v>7087828.95766044</v>
+        <v>7087723.784426957</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6838,11 +6811,6 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6869,10 +6837,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111936890</v>
+        <v>111936839</v>
       </c>
       <c r="B54" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6885,34 +6853,38 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>450090.7181781353</v>
+        <v>450131.6327386007</v>
       </c>
       <c r="R54" t="n">
-        <v>7087906.458368747</v>
+        <v>7087763.171492323</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6955,6 +6927,11 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6981,7 +6958,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111936882</v>
+        <v>111936889</v>
       </c>
       <c r="B55" t="n">
         <v>89423</v>
@@ -7021,10 +6998,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>450302.2134820353</v>
+        <v>450085.2810093437</v>
       </c>
       <c r="R55" t="n">
-        <v>7088261.851095661</v>
+        <v>7087869.566356667</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7093,10 +7070,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111936787</v>
+        <v>111936828</v>
       </c>
       <c r="B56" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7109,34 +7086,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>449921.5801251211</v>
+        <v>450330.1459388774</v>
       </c>
       <c r="R56" t="n">
-        <v>7088162.277260567</v>
+        <v>7088022.386462688</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7179,6 +7160,11 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7205,7 +7191,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111936846</v>
+        <v>111936825</v>
       </c>
       <c r="B57" t="n">
         <v>56398</v>
@@ -7249,10 +7235,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>449993.8992946697</v>
+        <v>450327.3170750244</v>
       </c>
       <c r="R57" t="n">
-        <v>7087723.105873908</v>
+        <v>7088177.378980519</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7299,7 +7285,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7326,7 +7312,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111936840</v>
+        <v>111936829</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7370,10 +7356,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>450107.5862887118</v>
+        <v>450355.152160185</v>
       </c>
       <c r="R58" t="n">
-        <v>7087830.910808215</v>
+        <v>7088014.946387996</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7420,7 +7406,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7447,7 +7433,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111936824</v>
+        <v>111936809</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7491,10 +7477,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>450381.9209948868</v>
+        <v>450018.9795980158</v>
       </c>
       <c r="R59" t="n">
-        <v>7088202.043031318</v>
+        <v>7088106.576729243</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7541,7 +7527,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7568,10 +7554,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111936886</v>
+        <v>111936832</v>
       </c>
       <c r="B60" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7584,34 +7570,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>450160.5140639331</v>
+        <v>450285.6401275547</v>
       </c>
       <c r="R60" t="n">
-        <v>7087694.473437991</v>
+        <v>7087828.95766044</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7654,6 +7644,11 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7680,7 +7675,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111936884</v>
+        <v>111936890</v>
       </c>
       <c r="B61" t="n">
         <v>89423</v>
@@ -7720,10 +7715,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>450409.0315130352</v>
+        <v>450090.7181781353</v>
       </c>
       <c r="R61" t="n">
-        <v>7087882.468395516</v>
+        <v>7087906.458368747</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7792,7 +7787,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111936804</v>
+        <v>111936842</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7828,11 +7823,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7840,10 +7831,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>449911.1877795978</v>
+        <v>450087.0031922986</v>
       </c>
       <c r="R62" t="n">
-        <v>7088173.888399968</v>
+        <v>7087894.631646507</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7890,7 +7881,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7917,7 +7908,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111936880</v>
+        <v>111936891</v>
       </c>
       <c r="B63" t="n">
         <v>89423</v>
@@ -7957,10 +7948,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>450225.4440332729</v>
+        <v>450088.3923611997</v>
       </c>
       <c r="R63" t="n">
-        <v>7088145.984062891</v>
+        <v>7087843.543314508</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -8029,10 +8020,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111936889</v>
+        <v>111936827</v>
       </c>
       <c r="B64" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8045,34 +8036,38 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>450085.2810093437</v>
+        <v>450309.9591882866</v>
       </c>
       <c r="R64" t="n">
-        <v>7087869.566356667</v>
+        <v>7088027.98938123</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8115,6 +8110,11 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -1729,7 +1729,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936850</v>
+        <v>111936807</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449959.508293822</v>
+        <v>450003</v>
       </c>
       <c r="R11" t="n">
-        <v>7087777.805452998</v>
+        <v>7088105</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1806,24 +1806,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1850,7 +1840,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936851</v>
+        <v>111936847</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1894,10 +1884,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449977.2699648383</v>
+        <v>449953</v>
       </c>
       <c r="R12" t="n">
-        <v>7087785.886029115</v>
+        <v>7087533</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1927,24 +1917,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1971,7 +1951,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936880</v>
+        <v>111936887</v>
       </c>
       <c r="B13" t="n">
         <v>89423</v>
@@ -2011,10 +1991,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>450225.4440332729</v>
+        <v>450114</v>
       </c>
       <c r="R13" t="n">
-        <v>7088145.984062891</v>
+        <v>7087631</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2044,19 +2024,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2083,10 +2053,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936834</v>
+        <v>111936888</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2099,38 +2069,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>450265.96987074</v>
+        <v>450117</v>
       </c>
       <c r="R14" t="n">
-        <v>7087811.66093865</v>
+        <v>7087724</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2160,24 +2126,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2204,10 +2155,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936831</v>
+        <v>111936889</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2220,38 +2171,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>450354.221952226</v>
+        <v>450085</v>
       </c>
       <c r="R15" t="n">
-        <v>7088011.879717183</v>
+        <v>7087870</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2281,24 +2228,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2325,10 +2257,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936784</v>
+        <v>111936881</v>
       </c>
       <c r="B16" t="n">
-        <v>89369</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2337,25 +2269,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2365,10 +2297,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>450333.9476851027</v>
+        <v>450283</v>
       </c>
       <c r="R16" t="n">
-        <v>7088178.594271541</v>
+        <v>7088220</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2398,19 +2330,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2437,7 +2359,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936837</v>
+        <v>111936826</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2481,10 +2403,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>450059.2030462694</v>
+        <v>450286</v>
       </c>
       <c r="R17" t="n">
-        <v>7087644.138522012</v>
+        <v>7088075</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2514,24 +2436,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2558,10 +2470,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936807</v>
+        <v>111936880</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2574,38 +2486,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>450003.0879358895</v>
+        <v>450225</v>
       </c>
       <c r="R18" t="n">
-        <v>7088105.069833261</v>
+        <v>7088146</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2635,24 +2543,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2679,10 +2572,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936821</v>
+        <v>111936886</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2695,38 +2588,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>450360.2931049832</v>
+        <v>450161</v>
       </c>
       <c r="R19" t="n">
-        <v>7088255.647101439</v>
+        <v>7087694</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2756,24 +2645,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2800,10 +2674,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936887</v>
+        <v>111936849</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2816,34 +2690,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>450114.0964737512</v>
+        <v>449924</v>
       </c>
       <c r="R20" t="n">
-        <v>7087630.935839922</v>
+        <v>7087660</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2873,19 +2751,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2912,10 +2785,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936843</v>
+        <v>111936885</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2928,38 +2801,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>450060.9834812499</v>
+        <v>450183</v>
       </c>
       <c r="R21" t="n">
-        <v>7087810.963207304</v>
+        <v>7087782</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2989,24 +2858,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3033,7 +2887,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111936845</v>
+        <v>111936842</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3077,10 +2931,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>449982.3754608733</v>
+        <v>450087</v>
       </c>
       <c r="R22" t="n">
-        <v>7087774.35822109</v>
+        <v>7087895</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3110,24 +2964,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3154,7 +2998,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111936847</v>
+        <v>111936840</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3198,10 +3042,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>449952.5031349848</v>
+        <v>450108</v>
       </c>
       <c r="R23" t="n">
-        <v>7087532.694708571</v>
+        <v>7087831</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3231,24 +3075,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3275,7 +3109,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111936804</v>
+        <v>111936848</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3311,11 +3145,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3323,10 +3153,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>449911.1877795978</v>
+        <v>449911</v>
       </c>
       <c r="R24" t="n">
-        <v>7088173.888399968</v>
+        <v>7087656</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3356,19 +3186,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -3400,7 +3220,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936835</v>
+        <v>111936825</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3444,10 +3264,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450184.677463644</v>
+        <v>450327</v>
       </c>
       <c r="R25" t="n">
-        <v>7087744.717036478</v>
+        <v>7088177</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3477,24 +3297,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3521,7 +3331,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936803</v>
+        <v>111936831</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3565,10 +3375,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>449957.2247330564</v>
+        <v>450354</v>
       </c>
       <c r="R26" t="n">
-        <v>7088103.60200156</v>
+        <v>7088012</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3598,24 +3408,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3642,7 +3442,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936838</v>
+        <v>111936851</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3686,10 +3486,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>450064.5987260632</v>
+        <v>449977</v>
       </c>
       <c r="R27" t="n">
-        <v>7087678.39231076</v>
+        <v>7087786</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3719,24 +3519,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3763,7 +3553,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936846</v>
+        <v>111936809</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3807,10 +3597,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>449993.8992946697</v>
+        <v>450019</v>
       </c>
       <c r="R28" t="n">
-        <v>7087723.105873908</v>
+        <v>7088107</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3840,19 +3630,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -3884,10 +3664,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936811</v>
+        <v>111936787</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3900,38 +3680,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>450080.4394533724</v>
+        <v>449922</v>
       </c>
       <c r="R29" t="n">
-        <v>7088091.069257133</v>
+        <v>7088162</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3961,24 +3737,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4005,10 +3766,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936824</v>
+        <v>111936884</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4021,38 +3782,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>450381.9209948868</v>
+        <v>450409</v>
       </c>
       <c r="R30" t="n">
-        <v>7088202.043031318</v>
+        <v>7087882</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4082,24 +3839,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4126,10 +3868,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936882</v>
+        <v>111936832</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4142,34 +3884,38 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>450302.2134820353</v>
+        <v>450286</v>
       </c>
       <c r="R31" t="n">
-        <v>7088261.851095661</v>
+        <v>7087829</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4199,19 +3945,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4238,10 +3979,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111936787</v>
+        <v>111936803</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4254,34 +3995,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>449921.5801251211</v>
+        <v>449957</v>
       </c>
       <c r="R32" t="n">
-        <v>7088162.277260567</v>
+        <v>7088104</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4311,19 +4056,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4350,7 +4090,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111936817</v>
+        <v>111936843</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4394,10 +4134,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>450278.9580704377</v>
+        <v>450061</v>
       </c>
       <c r="R33" t="n">
-        <v>7088212.921176435</v>
+        <v>7087811</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4427,24 +4167,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4471,10 +4201,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111936884</v>
+        <v>111936817</v>
       </c>
       <c r="B34" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4487,34 +4217,38 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>450409.0315130352</v>
+        <v>450279</v>
       </c>
       <c r="R34" t="n">
-        <v>7087882.468395516</v>
+        <v>7088213</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4544,19 +4278,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4583,7 +4312,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111936849</v>
+        <v>111936836</v>
       </c>
       <c r="B35" t="n">
         <v>56398</v>
@@ -4627,10 +4356,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>449923.672939889</v>
+        <v>450058</v>
       </c>
       <c r="R35" t="n">
-        <v>7087659.511824413</v>
+        <v>7087628</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4660,19 +4389,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -4704,10 +4423,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111936883</v>
+        <v>111936834</v>
       </c>
       <c r="B36" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4720,34 +4439,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>450282.2178587588</v>
+        <v>450266</v>
       </c>
       <c r="R36" t="n">
-        <v>7088112.947729391</v>
+        <v>7087812</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4777,19 +4500,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4816,7 +4534,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111936806</v>
+        <v>111936844</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4860,10 +4578,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>449925.5459391113</v>
+        <v>450042</v>
       </c>
       <c r="R37" t="n">
-        <v>7088162.213792897</v>
+        <v>7087785</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4893,24 +4611,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4937,7 +4645,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111936805</v>
+        <v>111936845</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4981,10 +4689,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>449946.0831624712</v>
+        <v>449982</v>
       </c>
       <c r="R38" t="n">
-        <v>7088178.612199004</v>
+        <v>7087774</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5014,24 +4722,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5058,7 +4756,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111936826</v>
+        <v>111936838</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5102,10 +4800,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>450286.4637555202</v>
+        <v>450065</v>
       </c>
       <c r="R39" t="n">
-        <v>7088075.023661445</v>
+        <v>7087678</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5135,24 +4833,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5179,10 +4867,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111936885</v>
+        <v>111936811</v>
       </c>
       <c r="B40" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5195,34 +4883,38 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>450183.0624540736</v>
+        <v>450080</v>
       </c>
       <c r="R40" t="n">
-        <v>7087781.722905395</v>
+        <v>7088091</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5252,19 +4944,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5291,10 +4978,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111936816</v>
+        <v>111936784</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5303,42 +4990,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>450284.259858286</v>
+        <v>450334</v>
       </c>
       <c r="R41" t="n">
-        <v>7088185.98605396</v>
+        <v>7088179</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5368,24 +5051,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5412,7 +5080,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111936820</v>
+        <v>111936805</v>
       </c>
       <c r="B42" t="n">
         <v>56398</v>
@@ -5456,10 +5124,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>450351.9978939942</v>
+        <v>449946</v>
       </c>
       <c r="R42" t="n">
-        <v>7088260.620581007</v>
+        <v>7088179</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5489,24 +5157,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5533,7 +5191,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111936813</v>
+        <v>111936814</v>
       </c>
       <c r="B43" t="n">
         <v>56398</v>
@@ -5577,10 +5235,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>450091.3716223672</v>
+        <v>450115</v>
       </c>
       <c r="R43" t="n">
-        <v>7088085.61253533</v>
+        <v>7088076</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5610,24 +5268,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5654,10 +5302,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111936881</v>
+        <v>111936813</v>
       </c>
       <c r="B44" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5670,34 +5318,38 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>450283.4763324714</v>
+        <v>450091</v>
       </c>
       <c r="R44" t="n">
-        <v>7088219.892198123</v>
+        <v>7088086</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5727,19 +5379,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5766,7 +5413,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111936814</v>
+        <v>111936846</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5810,10 +5457,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>450114.5720794405</v>
+        <v>449994</v>
       </c>
       <c r="R45" t="n">
-        <v>7088075.55827428</v>
+        <v>7087723</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5843,19 +5490,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -5887,7 +5524,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111936886</v>
+        <v>111936890</v>
       </c>
       <c r="B46" t="n">
         <v>89423</v>
@@ -5927,10 +5564,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>450160.5140639331</v>
+        <v>450091</v>
       </c>
       <c r="R46" t="n">
-        <v>7087694.473437991</v>
+        <v>7087906</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5960,19 +5597,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5999,10 +5626,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111936844</v>
+        <v>111936891</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6015,38 +5642,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>450042.0527216683</v>
+        <v>450088</v>
       </c>
       <c r="R47" t="n">
-        <v>7087784.851202786</v>
+        <v>7087844</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6076,24 +5699,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6120,7 +5728,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111936848</v>
+        <v>111936820</v>
       </c>
       <c r="B48" t="n">
         <v>56398</v>
@@ -6164,10 +5772,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>449910.8357987376</v>
+        <v>450352</v>
       </c>
       <c r="R48" t="n">
-        <v>7087656.195201878</v>
+        <v>7088261</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6197,24 +5805,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6241,7 +5839,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111936810</v>
+        <v>111936828</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6285,10 +5883,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>450076.6474004715</v>
+        <v>450330</v>
       </c>
       <c r="R49" t="n">
-        <v>7088074.402316166</v>
+        <v>7088022</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6318,24 +5916,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6362,7 +5950,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111936815</v>
+        <v>111936835</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6406,10 +5994,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>450254.4076567063</v>
+        <v>450185</v>
       </c>
       <c r="R50" t="n">
-        <v>7088082.576232391</v>
+        <v>7087745</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6439,24 +6027,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6483,7 +6061,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111936840</v>
+        <v>111936806</v>
       </c>
       <c r="B51" t="n">
         <v>56398</v>
@@ -6527,10 +6105,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>450107.5862887118</v>
+        <v>449926</v>
       </c>
       <c r="R51" t="n">
-        <v>7087830.910808215</v>
+        <v>7088162</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6560,24 +6138,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6604,7 +6172,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111936836</v>
+        <v>111936827</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6648,10 +6216,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>450058.0687601124</v>
+        <v>450310</v>
       </c>
       <c r="R52" t="n">
-        <v>7087628.307317851</v>
+        <v>7088028</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6681,19 +6249,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -6725,10 +6283,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111936888</v>
+        <v>111936810</v>
       </c>
       <c r="B53" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6741,34 +6299,38 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>450116.8988930489</v>
+        <v>450077</v>
       </c>
       <c r="R53" t="n">
-        <v>7087723.784426957</v>
+        <v>7088074</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6798,19 +6360,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6837,7 +6394,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111936839</v>
+        <v>111936837</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6881,10 +6438,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>450131.6327386007</v>
+        <v>450059</v>
       </c>
       <c r="R54" t="n">
-        <v>7087763.171492323</v>
+        <v>7087644</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6914,19 +6471,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -6958,10 +6505,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111936889</v>
+        <v>111936816</v>
       </c>
       <c r="B55" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6974,34 +6521,38 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>450085.2810093437</v>
+        <v>450284</v>
       </c>
       <c r="R55" t="n">
-        <v>7087869.566356667</v>
+        <v>7088186</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7031,19 +6582,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7070,7 +6616,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111936828</v>
+        <v>111936829</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7114,10 +6660,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>450330.1459388774</v>
+        <v>450355</v>
       </c>
       <c r="R56" t="n">
-        <v>7088022.386462688</v>
+        <v>7088015</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7147,24 +6693,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7191,10 +6727,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111936825</v>
+        <v>111936883</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7207,38 +6743,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>450327.3170750244</v>
+        <v>450282</v>
       </c>
       <c r="R57" t="n">
-        <v>7088177.378980519</v>
+        <v>7088113</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7268,24 +6800,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7312,7 +6829,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111936829</v>
+        <v>111936815</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7356,10 +6873,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>450355.152160185</v>
+        <v>450254</v>
       </c>
       <c r="R58" t="n">
-        <v>7088014.946387996</v>
+        <v>7088083</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7389,19 +6906,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
@@ -7433,10 +6940,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111936809</v>
+        <v>111936882</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7449,38 +6956,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>450018.9795980158</v>
+        <v>450302</v>
       </c>
       <c r="R59" t="n">
-        <v>7088106.576729243</v>
+        <v>7088262</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7510,24 +7013,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7554,7 +7042,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111936832</v>
+        <v>111936821</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7598,10 +7086,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>450285.6401275547</v>
+        <v>450360</v>
       </c>
       <c r="R60" t="n">
-        <v>7087828.95766044</v>
+        <v>7088256</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7631,19 +7119,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
@@ -7675,10 +7153,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111936890</v>
+        <v>111936850</v>
       </c>
       <c r="B61" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7691,34 +7169,38 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>450090.7181781353</v>
+        <v>449960</v>
       </c>
       <c r="R61" t="n">
-        <v>7087906.458368747</v>
+        <v>7087778</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7748,19 +7230,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7787,7 +7264,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111936842</v>
+        <v>111936839</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7831,10 +7308,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>450087.0031922986</v>
+        <v>450132</v>
       </c>
       <c r="R62" t="n">
-        <v>7087894.631646507</v>
+        <v>7087763</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7864,24 +7341,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7908,10 +7375,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111936891</v>
+        <v>111936804</v>
       </c>
       <c r="B63" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7924,34 +7391,42 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>450088.3923611997</v>
+        <v>449911</v>
       </c>
       <c r="R63" t="n">
-        <v>7087843.543314508</v>
+        <v>7088174</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7981,19 +7456,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8020,7 +7490,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111936827</v>
+        <v>111936824</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8064,10 +7534,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>450309.9591882866</v>
+        <v>450382</v>
       </c>
       <c r="R64" t="n">
-        <v>7088027.98938123</v>
+        <v>7088202</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8097,24 +7567,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89603526</v>
+        <v>110580228</v>
       </c>
       <c r="B2" t="n">
-        <v>73686</v>
+        <v>76513</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,40 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>450028.9954418801</v>
+        <v>450287.6033928538</v>
       </c>
       <c r="R2" t="n">
-        <v>7087822.919885547</v>
+        <v>7088146.756647575</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +763,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -774,32 +777,29 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89603513</v>
+        <v>110580308</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>89401</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,37 +812,40 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>450060.2126554123</v>
+        <v>450262.4304980583</v>
       </c>
       <c r="R3" t="n">
-        <v>7087679.78305334</v>
+        <v>7088143.635188881</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -866,7 +869,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +879,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -884,43 +887,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89603521</v>
+        <v>110580220</v>
       </c>
       <c r="B4" t="n">
-        <v>73678</v>
+        <v>73689</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,41 +924,44 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6439</v>
+        <v>308</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>450028.9954418801</v>
+        <v>450318.5116387127</v>
       </c>
       <c r="R4" t="n">
-        <v>7087822.919885547</v>
+        <v>7088150.227421151</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -987,7 +985,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -997,7 +995,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1011,32 +1009,29 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89603523</v>
+        <v>110580497</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>73701</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,37 +1044,40 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>1467</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>450044.8400147054</v>
+        <v>450284.6803151176</v>
       </c>
       <c r="R5" t="n">
-        <v>7087931.842652846</v>
+        <v>7088045.998939568</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1103,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1113,7 +1111,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2023-07-04</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1127,32 +1125,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89603525</v>
+        <v>111936784</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>89503</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1161,38 +1156,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>450388.1948410851</v>
+        <v>450334</v>
       </c>
       <c r="R6" t="n">
-        <v>7087847.140456564</v>
+        <v>7088179</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1219,22 +1214,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1249,26 +1234,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110580228</v>
+        <v>111936820</v>
       </c>
       <c r="B7" t="n">
-        <v>76513</v>
+        <v>56430</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,40 +1262,41 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>314</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>450287.6033928538</v>
+        <v>450352</v>
       </c>
       <c r="R7" t="n">
-        <v>7088146.756647575</v>
+        <v>7088261</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1338,22 +1320,17 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1362,29 +1339,28 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110580308</v>
+        <v>111936883</v>
       </c>
       <c r="B8" t="n">
-        <v>89401</v>
+        <v>89557</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,40 +1373,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>450262.4304980583</v>
+        <v>450282</v>
       </c>
       <c r="R8" t="n">
-        <v>7088143.635188881</v>
+        <v>7088113</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1454,22 +1427,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1478,29 +1441,28 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110580220</v>
+        <v>111936821</v>
       </c>
       <c r="B9" t="n">
-        <v>73689</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1513,40 +1475,41 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>308</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>450318.5116387127</v>
+        <v>450360</v>
       </c>
       <c r="R9" t="n">
-        <v>7088150.227421151</v>
+        <v>7088256</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1570,22 +1533,17 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,29 +1552,28 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110580497</v>
+        <v>111936826</v>
       </c>
       <c r="B10" t="n">
-        <v>73701</v>
+        <v>56430</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1629,40 +1586,41 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>450284.6803151176</v>
+        <v>450286</v>
       </c>
       <c r="R10" t="n">
-        <v>7088045.998939568</v>
+        <v>7088075</v>
       </c>
       <c r="S10" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1686,22 +1644,17 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1710,29 +1663,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936807</v>
+        <v>111936815</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1773,10 +1725,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>450003</v>
+        <v>450254</v>
       </c>
       <c r="R11" t="n">
-        <v>7088105</v>
+        <v>7088083</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1840,10 +1792,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936847</v>
+        <v>111936882</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,38 +1808,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449953</v>
+        <v>450302</v>
       </c>
       <c r="R12" t="n">
-        <v>7087533</v>
+        <v>7088262</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1920,11 +1868,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1951,10 +1894,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936887</v>
+        <v>111936831</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1967,34 +1910,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>450114</v>
+        <v>450354</v>
       </c>
       <c r="R13" t="n">
-        <v>7087631</v>
+        <v>7088012</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,6 +1974,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2053,10 +2005,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936888</v>
+        <v>111936881</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2093,10 +2045,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>450117</v>
+        <v>450283</v>
       </c>
       <c r="R14" t="n">
-        <v>7087724</v>
+        <v>7088220</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2155,10 +2107,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936889</v>
+        <v>111936824</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2171,34 +2123,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>450085</v>
+        <v>450382</v>
       </c>
       <c r="R15" t="n">
-        <v>7087870</v>
+        <v>7088202</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2231,6 +2187,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2257,10 +2218,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936881</v>
+        <v>111936827</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2273,34 +2234,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>450283</v>
+        <v>450310</v>
       </c>
       <c r="R16" t="n">
-        <v>7088220</v>
+        <v>7088028</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2333,6 +2298,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2359,10 +2329,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936826</v>
+        <v>111936816</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2403,10 +2373,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>450286</v>
+        <v>450284</v>
       </c>
       <c r="R17" t="n">
-        <v>7088075</v>
+        <v>7088186</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2470,10 +2440,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936880</v>
+        <v>111936825</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2486,34 +2456,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>450225</v>
+        <v>450327</v>
       </c>
       <c r="R18" t="n">
-        <v>7088146</v>
+        <v>7088177</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2546,6 +2520,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2572,10 +2551,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936886</v>
+        <v>111936829</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2588,34 +2567,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>450161</v>
+        <v>450355</v>
       </c>
       <c r="R19" t="n">
-        <v>7087694</v>
+        <v>7088015</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2648,6 +2631,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2674,10 +2662,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936849</v>
+        <v>111936880</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2690,38 +2678,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449924</v>
+        <v>450225</v>
       </c>
       <c r="R20" t="n">
-        <v>7087660</v>
+        <v>7088146</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2754,11 +2738,6 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2785,10 +2764,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936885</v>
+        <v>111936828</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2801,34 +2780,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>450183</v>
+        <v>450330</v>
       </c>
       <c r="R21" t="n">
-        <v>7087782</v>
+        <v>7088022</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2861,6 +2844,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2887,10 +2875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111936842</v>
+        <v>111936817</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2931,10 +2919,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>450087</v>
+        <v>450279</v>
       </c>
       <c r="R22" t="n">
-        <v>7087895</v>
+        <v>7088213</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2971,7 +2959,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2998,10 +2986,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111936840</v>
+        <v>89603526</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>73686</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3014,38 +3002,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>450108</v>
+        <v>450028.9954418801</v>
       </c>
       <c r="R23" t="n">
-        <v>7087831</v>
+        <v>7087822.919885547</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3072,17 +3056,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3097,22 +3086,26 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111936848</v>
+        <v>89603513</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>56395</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3143,20 +3136,16 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>449911</v>
+        <v>450060.2126554123</v>
       </c>
       <c r="R24" t="n">
-        <v>7087656</v>
+        <v>7087679.78305334</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3183,17 +3172,27 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3208,22 +3207,26 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111936825</v>
+        <v>89603521</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>73678</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3232,42 +3235,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6439</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450327</v>
+        <v>450028.9954418801</v>
       </c>
       <c r="R25" t="n">
-        <v>7088177</v>
+        <v>7087822.919885547</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3294,17 +3293,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3319,22 +3323,26 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111936831</v>
+        <v>89603523</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89410</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3347,38 +3355,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>450354</v>
+        <v>450044.8400147054</v>
       </c>
       <c r="R26" t="n">
-        <v>7088012</v>
+        <v>7087931.842652846</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3405,17 +3409,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>ringhack</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3430,22 +3439,26 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111936851</v>
+        <v>89603525</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>77506</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3458,38 +3471,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>449977</v>
+        <v>450388.1948410851</v>
       </c>
       <c r="R27" t="n">
-        <v>7087786</v>
+        <v>7087847.140456564</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3516,17 +3525,22 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ringhack</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3541,22 +3555,26 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936809</v>
+        <v>111936847</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3597,10 +3615,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>450019</v>
+        <v>449953</v>
       </c>
       <c r="R28" t="n">
-        <v>7088107</v>
+        <v>7087533</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3637,7 +3655,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3664,10 +3682,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936787</v>
+        <v>111936849</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>56430</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3680,34 +3698,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>449922</v>
+        <v>449924</v>
       </c>
       <c r="R29" t="n">
-        <v>7088162</v>
+        <v>7087660</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3740,6 +3762,11 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3766,10 +3793,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936884</v>
+        <v>111936839</v>
       </c>
       <c r="B30" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3782,34 +3809,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>450409</v>
+        <v>450132</v>
       </c>
       <c r="R30" t="n">
-        <v>7087882</v>
+        <v>7087763</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3842,6 +3873,11 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3868,10 +3904,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936832</v>
+        <v>111936888</v>
       </c>
       <c r="B31" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3884,38 +3920,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>450286</v>
+        <v>450117</v>
       </c>
       <c r="R31" t="n">
-        <v>7087829</v>
+        <v>7087724</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3948,11 +3980,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3979,10 +4006,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111936803</v>
+        <v>111936843</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4023,10 +4050,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>449957</v>
+        <v>450061</v>
       </c>
       <c r="R32" t="n">
-        <v>7088104</v>
+        <v>7087811</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4063,7 +4090,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4090,10 +4117,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111936843</v>
+        <v>111936844</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4134,10 +4161,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>450061</v>
+        <v>450042</v>
       </c>
       <c r="R33" t="n">
-        <v>7087811</v>
+        <v>7087785</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4174,7 +4201,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4201,10 +4228,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111936817</v>
+        <v>111936805</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4245,10 +4272,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>450279</v>
+        <v>449946</v>
       </c>
       <c r="R34" t="n">
-        <v>7088213</v>
+        <v>7088179</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4312,10 +4339,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111936836</v>
+        <v>111936891</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4328,38 +4355,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>450058</v>
+        <v>450088</v>
       </c>
       <c r="R35" t="n">
-        <v>7087628</v>
+        <v>7087844</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4392,11 +4415,6 @@
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4423,10 +4441,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111936834</v>
+        <v>111936807</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4467,10 +4485,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>450266</v>
+        <v>450003</v>
       </c>
       <c r="R36" t="n">
-        <v>7087812</v>
+        <v>7088105</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4507,7 +4525,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4534,10 +4552,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111936844</v>
+        <v>111936889</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4550,38 +4568,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>450042</v>
+        <v>450085</v>
       </c>
       <c r="R37" t="n">
-        <v>7087785</v>
+        <v>7087870</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4614,11 +4628,6 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4645,10 +4654,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111936845</v>
+        <v>111936884</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4661,38 +4670,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>449982</v>
+        <v>450409</v>
       </c>
       <c r="R38" t="n">
-        <v>7087774</v>
+        <v>7087882</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4725,11 +4730,6 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4756,10 +4756,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111936838</v>
+        <v>111936846</v>
       </c>
       <c r="B39" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>450065</v>
+        <v>449994</v>
       </c>
       <c r="R39" t="n">
-        <v>7087678</v>
+        <v>7087723</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111936811</v>
+        <v>111936837</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>450080</v>
+        <v>450059</v>
       </c>
       <c r="R40" t="n">
-        <v>7088091</v>
+        <v>7087644</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4978,10 +4978,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111936784</v>
+        <v>111936810</v>
       </c>
       <c r="B41" t="n">
-        <v>89369</v>
+        <v>56430</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4990,38 +4990,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>450334</v>
+        <v>450077</v>
       </c>
       <c r="R41" t="n">
-        <v>7088179</v>
+        <v>7088074</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5054,6 +5058,11 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5080,10 +5089,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111936805</v>
+        <v>111936835</v>
       </c>
       <c r="B42" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5124,10 +5133,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>449946</v>
+        <v>450185</v>
       </c>
       <c r="R42" t="n">
-        <v>7088179</v>
+        <v>7087745</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5191,10 +5200,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111936814</v>
+        <v>111936836</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5235,10 +5244,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>450115</v>
+        <v>450058</v>
       </c>
       <c r="R43" t="n">
-        <v>7088076</v>
+        <v>7087628</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5302,10 +5311,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111936813</v>
+        <v>111936832</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5346,10 +5355,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>450091</v>
+        <v>450286</v>
       </c>
       <c r="R44" t="n">
-        <v>7088086</v>
+        <v>7087829</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5386,7 +5395,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5413,10 +5422,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111936846</v>
+        <v>111936806</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5457,10 +5466,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>449994</v>
+        <v>449926</v>
       </c>
       <c r="R45" t="n">
-        <v>7087723</v>
+        <v>7088162</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5497,7 +5506,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5524,10 +5533,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111936890</v>
+        <v>111936845</v>
       </c>
       <c r="B46" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5540,34 +5549,38 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>450091</v>
+        <v>449982</v>
       </c>
       <c r="R46" t="n">
-        <v>7087906</v>
+        <v>7087774</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5600,6 +5613,11 @@
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5626,10 +5644,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111936891</v>
+        <v>111936886</v>
       </c>
       <c r="B47" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5666,10 +5684,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>450088</v>
+        <v>450161</v>
       </c>
       <c r="R47" t="n">
-        <v>7087844</v>
+        <v>7087694</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5728,10 +5746,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111936820</v>
+        <v>111936803</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5772,10 +5790,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>450352</v>
+        <v>449957</v>
       </c>
       <c r="R48" t="n">
-        <v>7088261</v>
+        <v>7088104</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5812,7 +5830,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5839,10 +5857,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111936828</v>
+        <v>111936838</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5883,10 +5901,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>450330</v>
+        <v>450065</v>
       </c>
       <c r="R49" t="n">
-        <v>7088022</v>
+        <v>7087678</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5950,10 +5968,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111936835</v>
+        <v>111936814</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5994,10 +6012,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>450185</v>
+        <v>450115</v>
       </c>
       <c r="R50" t="n">
-        <v>7087745</v>
+        <v>7088076</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6034,7 +6052,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6061,10 +6079,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111936806</v>
+        <v>111936842</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6105,10 +6123,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>449926</v>
+        <v>450087</v>
       </c>
       <c r="R51" t="n">
-        <v>7088162</v>
+        <v>7087895</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6172,10 +6190,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111936827</v>
+        <v>111936813</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6216,10 +6234,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>450310</v>
+        <v>450091</v>
       </c>
       <c r="R52" t="n">
-        <v>7088028</v>
+        <v>7088086</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6256,7 +6274,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6283,10 +6301,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111936810</v>
+        <v>111936885</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6299,38 +6317,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>450077</v>
+        <v>450183</v>
       </c>
       <c r="R53" t="n">
-        <v>7088074</v>
+        <v>7087782</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6363,11 +6377,6 @@
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6394,10 +6403,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111936837</v>
+        <v>111936787</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>89539</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6410,38 +6419,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>450059</v>
+        <v>449922</v>
       </c>
       <c r="R54" t="n">
-        <v>7087644</v>
+        <v>7088162</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6474,11 +6479,6 @@
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6505,10 +6505,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111936816</v>
+        <v>111936804</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6541,7 +6541,11 @@
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6549,10 +6553,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>450284</v>
+        <v>449911</v>
       </c>
       <c r="R55" t="n">
-        <v>7088186</v>
+        <v>7088174</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6589,7 +6593,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6616,10 +6620,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111936829</v>
+        <v>111936834</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6660,10 +6664,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>450355</v>
+        <v>450266</v>
       </c>
       <c r="R56" t="n">
-        <v>7088015</v>
+        <v>7087812</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6700,7 +6704,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6727,10 +6731,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111936883</v>
+        <v>111936851</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6743,34 +6747,38 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>450282</v>
+        <v>449977</v>
       </c>
       <c r="R57" t="n">
-        <v>7088113</v>
+        <v>7087786</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6803,6 +6811,11 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6829,10 +6842,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111936815</v>
+        <v>111936848</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6873,10 +6886,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>450254</v>
+        <v>449911</v>
       </c>
       <c r="R58" t="n">
-        <v>7088083</v>
+        <v>7087656</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6913,7 +6926,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6940,10 +6953,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111936882</v>
+        <v>111936887</v>
       </c>
       <c r="B59" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6980,10 +6993,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>450302</v>
+        <v>450114</v>
       </c>
       <c r="R59" t="n">
-        <v>7088262</v>
+        <v>7087631</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7042,10 +7055,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111936821</v>
+        <v>111936840</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7086,10 +7099,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>450360</v>
+        <v>450108</v>
       </c>
       <c r="R60" t="n">
-        <v>7088256</v>
+        <v>7087831</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7156,7 +7169,7 @@
         <v>111936850</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7264,10 +7277,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111936839</v>
+        <v>111936809</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7308,10 +7321,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>450132</v>
+        <v>450019</v>
       </c>
       <c r="R62" t="n">
-        <v>7087763</v>
+        <v>7088107</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7348,7 +7361,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7375,10 +7388,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111936804</v>
+        <v>111936890</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7391,42 +7404,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>449911</v>
+        <v>450091</v>
       </c>
       <c r="R63" t="n">
-        <v>7088174</v>
+        <v>7087906</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7459,11 +7464,6 @@
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7490,10 +7490,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111936824</v>
+        <v>111936811</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>450382</v>
+        <v>450080</v>
       </c>
       <c r="R64" t="n">
-        <v>7088202</v>
+        <v>7088091</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -5089,7 +5089,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111936835</v>
+        <v>111936836</v>
       </c>
       <c r="B42" t="n">
         <v>56430</v>
@@ -5133,10 +5133,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>450185</v>
+        <v>450058</v>
       </c>
       <c r="R42" t="n">
-        <v>7087745</v>
+        <v>7087628</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5200,7 +5200,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111936836</v>
+        <v>111936832</v>
       </c>
       <c r="B43" t="n">
         <v>56430</v>
@@ -5244,10 +5244,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>450058</v>
+        <v>450286</v>
       </c>
       <c r="R43" t="n">
-        <v>7087628</v>
+        <v>7087829</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111936832</v>
+        <v>111936806</v>
       </c>
       <c r="B44" t="n">
         <v>56430</v>
@@ -5355,10 +5355,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>450286</v>
+        <v>449926</v>
       </c>
       <c r="R44" t="n">
-        <v>7087829</v>
+        <v>7088162</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5422,7 +5422,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111936806</v>
+        <v>111936835</v>
       </c>
       <c r="B45" t="n">
         <v>56430</v>
@@ -5466,10 +5466,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>449926</v>
+        <v>450185</v>
       </c>
       <c r="R45" t="n">
-        <v>7088162</v>
+        <v>7087745</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6953,10 +6953,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111936887</v>
+        <v>111936850</v>
       </c>
       <c r="B59" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6969,34 +6969,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>450114</v>
+        <v>449960</v>
       </c>
       <c r="R59" t="n">
-        <v>7087631</v>
+        <v>7087778</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7029,6 +7033,11 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7055,10 +7064,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111936840</v>
+        <v>111936887</v>
       </c>
       <c r="B60" t="n">
-        <v>56430</v>
+        <v>89557</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7071,38 +7080,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>450108</v>
+        <v>450114</v>
       </c>
       <c r="R60" t="n">
-        <v>7087831</v>
+        <v>7087631</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7135,11 +7140,6 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7166,7 +7166,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111936850</v>
+        <v>111936840</v>
       </c>
       <c r="B61" t="n">
         <v>56430</v>
@@ -7210,10 +7210,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>449960</v>
+        <v>450108</v>
       </c>
       <c r="R61" t="n">
-        <v>7087778</v>
+        <v>7087831</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD61" t="b">

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936784</v>
+        <v>111936824</v>
       </c>
       <c r="B6" t="n">
-        <v>89503</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,38 +1156,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>450334</v>
+        <v>450382</v>
       </c>
       <c r="R6" t="n">
-        <v>7088179</v>
+        <v>7088202</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1220,6 +1224,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1357,10 +1366,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936883</v>
+        <v>111936880</v>
       </c>
       <c r="B8" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,10 +1406,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>450282</v>
+        <v>450225</v>
       </c>
       <c r="R8" t="n">
-        <v>7088113</v>
+        <v>7088146</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1459,7 +1468,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936821</v>
+        <v>111936828</v>
       </c>
       <c r="B9" t="n">
         <v>56430</v>
@@ -1503,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>450360</v>
+        <v>450330</v>
       </c>
       <c r="R9" t="n">
-        <v>7088256</v>
+        <v>7088022</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1570,7 +1579,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936826</v>
+        <v>111936815</v>
       </c>
       <c r="B10" t="n">
         <v>56430</v>
@@ -1614,10 +1623,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>450286</v>
+        <v>450254</v>
       </c>
       <c r="R10" t="n">
-        <v>7088075</v>
+        <v>7088083</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1681,10 +1690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936815</v>
+        <v>111936784</v>
       </c>
       <c r="B11" t="n">
-        <v>56430</v>
+        <v>89517</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1693,42 +1702,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>450254</v>
+        <v>450334</v>
       </c>
       <c r="R11" t="n">
-        <v>7088083</v>
+        <v>7088179</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1761,11 +1766,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1792,10 +1792,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936882</v>
+        <v>111936816</v>
       </c>
       <c r="B12" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1808,34 +1808,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>450302</v>
+        <v>450284</v>
       </c>
       <c r="R12" t="n">
-        <v>7088262</v>
+        <v>7088186</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1868,6 +1872,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1894,7 +1903,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936831</v>
+        <v>111936821</v>
       </c>
       <c r="B13" t="n">
         <v>56430</v>
@@ -1938,10 +1947,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>450354</v>
+        <v>450360</v>
       </c>
       <c r="R13" t="n">
-        <v>7088012</v>
+        <v>7088256</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1978,7 +1987,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2008,7 +2017,7 @@
         <v>111936881</v>
       </c>
       <c r="B14" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2107,10 +2116,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936824</v>
+        <v>111936882</v>
       </c>
       <c r="B15" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2123,38 +2132,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>450382</v>
+        <v>450302</v>
       </c>
       <c r="R15" t="n">
-        <v>7088202</v>
+        <v>7088262</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2187,11 +2192,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2218,7 +2218,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936827</v>
+        <v>111936817</v>
       </c>
       <c r="B16" t="n">
         <v>56430</v>
@@ -2262,10 +2262,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>450310</v>
+        <v>450279</v>
       </c>
       <c r="R16" t="n">
-        <v>7088028</v>
+        <v>7088213</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2329,7 +2329,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936816</v>
+        <v>111936827</v>
       </c>
       <c r="B17" t="n">
         <v>56430</v>
@@ -2373,10 +2373,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>450284</v>
+        <v>450310</v>
       </c>
       <c r="R17" t="n">
-        <v>7088186</v>
+        <v>7088028</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2440,7 +2440,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936825</v>
+        <v>111936829</v>
       </c>
       <c r="B18" t="n">
         <v>56430</v>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>450327</v>
+        <v>450355</v>
       </c>
       <c r="R18" t="n">
-        <v>7088177</v>
+        <v>7088015</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936829</v>
+        <v>111936826</v>
       </c>
       <c r="B19" t="n">
         <v>56430</v>
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>450355</v>
+        <v>450286</v>
       </c>
       <c r="R19" t="n">
-        <v>7088015</v>
+        <v>7088075</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936880</v>
+        <v>111936831</v>
       </c>
       <c r="B20" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2678,34 +2678,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>450225</v>
+        <v>450354</v>
       </c>
       <c r="R20" t="n">
-        <v>7088146</v>
+        <v>7088012</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2738,6 +2742,11 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2764,10 +2773,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936828</v>
+        <v>111936883</v>
       </c>
       <c r="B21" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2780,38 +2789,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>450330</v>
+        <v>450282</v>
       </c>
       <c r="R21" t="n">
-        <v>7088022</v>
+        <v>7088113</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2844,11 +2849,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2875,7 +2875,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111936817</v>
+        <v>111936825</v>
       </c>
       <c r="B22" t="n">
         <v>56430</v>
@@ -2919,10 +2919,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>450279</v>
+        <v>450327</v>
       </c>
       <c r="R22" t="n">
-        <v>7088213</v>
+        <v>7088177</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3571,10 +3571,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936847</v>
+        <v>111936884</v>
       </c>
       <c r="B28" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3587,38 +3587,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>449953</v>
+        <v>450409</v>
       </c>
       <c r="R28" t="n">
-        <v>7087533</v>
+        <v>7087882</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3651,11 +3647,6 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3682,7 +3673,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936849</v>
+        <v>111936843</v>
       </c>
       <c r="B29" t="n">
         <v>56430</v>
@@ -3726,10 +3717,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>449924</v>
+        <v>450061</v>
       </c>
       <c r="R29" t="n">
-        <v>7087660</v>
+        <v>7087811</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3766,7 +3757,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3793,10 +3784,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936839</v>
+        <v>111936885</v>
       </c>
       <c r="B30" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3809,38 +3800,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>450132</v>
+        <v>450183</v>
       </c>
       <c r="R30" t="n">
-        <v>7087763</v>
+        <v>7087782</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3873,11 +3860,6 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3907,7 +3889,7 @@
         <v>111936888</v>
       </c>
       <c r="B31" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4006,7 +3988,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111936843</v>
+        <v>111936803</v>
       </c>
       <c r="B32" t="n">
         <v>56430</v>
@@ -4050,10 +4032,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>450061</v>
+        <v>449957</v>
       </c>
       <c r="R32" t="n">
-        <v>7087811</v>
+        <v>7088104</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4090,7 +4072,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4117,7 +4099,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111936844</v>
+        <v>111936809</v>
       </c>
       <c r="B33" t="n">
         <v>56430</v>
@@ -4161,10 +4143,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>450042</v>
+        <v>450019</v>
       </c>
       <c r="R33" t="n">
-        <v>7087785</v>
+        <v>7088107</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4228,7 +4210,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111936805</v>
+        <v>111936813</v>
       </c>
       <c r="B34" t="n">
         <v>56430</v>
@@ -4272,10 +4254,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>449946</v>
+        <v>450091</v>
       </c>
       <c r="R34" t="n">
-        <v>7088179</v>
+        <v>7088086</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4339,10 +4321,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111936891</v>
+        <v>111936814</v>
       </c>
       <c r="B35" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4355,34 +4337,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>450088</v>
+        <v>450115</v>
       </c>
       <c r="R35" t="n">
-        <v>7087844</v>
+        <v>7088076</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4415,6 +4401,11 @@
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4441,10 +4432,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111936807</v>
+        <v>111936887</v>
       </c>
       <c r="B36" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4457,38 +4448,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>450003</v>
+        <v>450114</v>
       </c>
       <c r="R36" t="n">
-        <v>7088105</v>
+        <v>7087631</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4521,11 +4508,6 @@
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4552,10 +4534,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111936889</v>
+        <v>111936838</v>
       </c>
       <c r="B37" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4568,34 +4550,38 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>450085</v>
+        <v>450065</v>
       </c>
       <c r="R37" t="n">
-        <v>7087870</v>
+        <v>7087678</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4628,6 +4614,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4654,10 +4645,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111936884</v>
+        <v>111936890</v>
       </c>
       <c r="B38" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4694,10 +4685,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>450409</v>
+        <v>450091</v>
       </c>
       <c r="R38" t="n">
-        <v>7087882</v>
+        <v>7087906</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4756,7 +4747,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111936846</v>
+        <v>111936834</v>
       </c>
       <c r="B39" t="n">
         <v>56430</v>
@@ -4800,10 +4791,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>449994</v>
+        <v>450266</v>
       </c>
       <c r="R39" t="n">
-        <v>7087723</v>
+        <v>7087812</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4840,7 +4831,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4867,7 +4858,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111936837</v>
+        <v>111936847</v>
       </c>
       <c r="B40" t="n">
         <v>56430</v>
@@ -4911,10 +4902,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>450059</v>
+        <v>449953</v>
       </c>
       <c r="R40" t="n">
-        <v>7087644</v>
+        <v>7087533</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4951,7 +4942,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4978,10 +4969,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111936810</v>
+        <v>111936787</v>
       </c>
       <c r="B41" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4994,38 +4985,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>450077</v>
+        <v>449922</v>
       </c>
       <c r="R41" t="n">
-        <v>7088074</v>
+        <v>7088162</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5058,11 +5045,6 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5089,7 +5071,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111936836</v>
+        <v>111936839</v>
       </c>
       <c r="B42" t="n">
         <v>56430</v>
@@ -5133,10 +5115,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>450058</v>
+        <v>450132</v>
       </c>
       <c r="R42" t="n">
-        <v>7087628</v>
+        <v>7087763</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5173,7 +5155,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5200,7 +5182,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111936832</v>
+        <v>111936836</v>
       </c>
       <c r="B43" t="n">
         <v>56430</v>
@@ -5244,10 +5226,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>450286</v>
+        <v>450058</v>
       </c>
       <c r="R43" t="n">
-        <v>7087829</v>
+        <v>7087628</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5311,7 +5293,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111936806</v>
+        <v>111936837</v>
       </c>
       <c r="B44" t="n">
         <v>56430</v>
@@ -5355,10 +5337,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>449926</v>
+        <v>450059</v>
       </c>
       <c r="R44" t="n">
-        <v>7088162</v>
+        <v>7087644</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5395,7 +5377,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5422,7 +5404,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111936835</v>
+        <v>111936846</v>
       </c>
       <c r="B45" t="n">
         <v>56430</v>
@@ -5466,10 +5448,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>450185</v>
+        <v>449994</v>
       </c>
       <c r="R45" t="n">
-        <v>7087745</v>
+        <v>7087723</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5506,7 +5488,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5533,7 +5515,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111936845</v>
+        <v>111936842</v>
       </c>
       <c r="B46" t="n">
         <v>56430</v>
@@ -5577,10 +5559,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>449982</v>
+        <v>450087</v>
       </c>
       <c r="R46" t="n">
-        <v>7087774</v>
+        <v>7087895</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5617,7 +5599,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5647,7 +5629,7 @@
         <v>111936886</v>
       </c>
       <c r="B47" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5746,7 +5728,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111936803</v>
+        <v>111936807</v>
       </c>
       <c r="B48" t="n">
         <v>56430</v>
@@ -5790,10 +5772,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>449957</v>
+        <v>450003</v>
       </c>
       <c r="R48" t="n">
-        <v>7088104</v>
+        <v>7088105</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5830,7 +5812,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5857,7 +5839,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111936838</v>
+        <v>111936835</v>
       </c>
       <c r="B49" t="n">
         <v>56430</v>
@@ -5901,10 +5883,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>450065</v>
+        <v>450185</v>
       </c>
       <c r="R49" t="n">
-        <v>7087678</v>
+        <v>7087745</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5941,7 +5923,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5968,7 +5950,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111936814</v>
+        <v>111936810</v>
       </c>
       <c r="B50" t="n">
         <v>56430</v>
@@ -6012,10 +5994,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>450115</v>
+        <v>450077</v>
       </c>
       <c r="R50" t="n">
-        <v>7088076</v>
+        <v>7088074</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6052,7 +6034,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6079,7 +6061,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111936842</v>
+        <v>111936850</v>
       </c>
       <c r="B51" t="n">
         <v>56430</v>
@@ -6123,10 +6105,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>450087</v>
+        <v>449960</v>
       </c>
       <c r="R51" t="n">
-        <v>7087895</v>
+        <v>7087778</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6163,7 +6145,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6190,7 +6172,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111936813</v>
+        <v>111936806</v>
       </c>
       <c r="B52" t="n">
         <v>56430</v>
@@ -6234,10 +6216,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>450091</v>
+        <v>449926</v>
       </c>
       <c r="R52" t="n">
-        <v>7088086</v>
+        <v>7088162</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6274,7 +6256,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6301,10 +6283,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111936885</v>
+        <v>111936811</v>
       </c>
       <c r="B53" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6317,34 +6299,38 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>450183</v>
+        <v>450080</v>
       </c>
       <c r="R53" t="n">
-        <v>7087782</v>
+        <v>7088091</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6377,6 +6363,11 @@
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6403,10 +6394,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111936787</v>
+        <v>111936804</v>
       </c>
       <c r="B54" t="n">
-        <v>89539</v>
+        <v>56430</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6419,34 +6410,42 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>449922</v>
+        <v>449911</v>
       </c>
       <c r="R54" t="n">
-        <v>7088162</v>
+        <v>7088174</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6479,6 +6478,11 @@
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6505,7 +6509,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111936804</v>
+        <v>111936840</v>
       </c>
       <c r="B55" t="n">
         <v>56430</v>
@@ -6541,11 +6545,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6553,10 +6553,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>449911</v>
+        <v>450108</v>
       </c>
       <c r="R55" t="n">
-        <v>7088174</v>
+        <v>7087831</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6620,10 +6620,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111936834</v>
+        <v>111936889</v>
       </c>
       <c r="B56" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6636,38 +6636,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>450266</v>
+        <v>450085</v>
       </c>
       <c r="R56" t="n">
-        <v>7087812</v>
+        <v>7087870</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6700,11 +6696,6 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6731,7 +6722,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111936851</v>
+        <v>111936805</v>
       </c>
       <c r="B57" t="n">
         <v>56430</v>
@@ -6775,10 +6766,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>449977</v>
+        <v>449946</v>
       </c>
       <c r="R57" t="n">
-        <v>7087786</v>
+        <v>7088179</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6842,7 +6833,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111936848</v>
+        <v>111936832</v>
       </c>
       <c r="B58" t="n">
         <v>56430</v>
@@ -6886,10 +6877,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>449911</v>
+        <v>450286</v>
       </c>
       <c r="R58" t="n">
-        <v>7087656</v>
+        <v>7087829</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6926,7 +6917,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6953,7 +6944,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111936850</v>
+        <v>111936851</v>
       </c>
       <c r="B59" t="n">
         <v>56430</v>
@@ -6997,10 +6988,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>449960</v>
+        <v>449977</v>
       </c>
       <c r="R59" t="n">
-        <v>7087778</v>
+        <v>7087786</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7064,10 +7055,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111936887</v>
+        <v>111936848</v>
       </c>
       <c r="B60" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7080,34 +7071,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>450114</v>
+        <v>449911</v>
       </c>
       <c r="R60" t="n">
-        <v>7087631</v>
+        <v>7087656</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7140,6 +7135,11 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7166,7 +7166,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111936840</v>
+        <v>111936849</v>
       </c>
       <c r="B61" t="n">
         <v>56430</v>
@@ -7210,10 +7210,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>450108</v>
+        <v>449924</v>
       </c>
       <c r="R61" t="n">
-        <v>7087831</v>
+        <v>7087660</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7277,10 +7277,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111936809</v>
+        <v>111936891</v>
       </c>
       <c r="B62" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7293,38 +7293,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>450019</v>
+        <v>450088</v>
       </c>
       <c r="R62" t="n">
-        <v>7088107</v>
+        <v>7087844</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7357,11 +7353,6 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7388,10 +7379,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111936890</v>
+        <v>111936844</v>
       </c>
       <c r="B63" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7404,34 +7395,38 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>450091</v>
+        <v>450042</v>
       </c>
       <c r="R63" t="n">
-        <v>7087906</v>
+        <v>7087785</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7464,6 +7459,11 @@
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7490,7 +7490,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111936811</v>
+        <v>111936845</v>
       </c>
       <c r="B64" t="n">
         <v>56430</v>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>450080</v>
+        <v>449982</v>
       </c>
       <c r="R64" t="n">
-        <v>7088091</v>
+        <v>7087774</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD64" t="b">

--- a/artfynd/A 18460-2023.xlsx
+++ b/artfynd/A 18460-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110580228</v>
+        <v>89603526</v>
       </c>
       <c r="B2" t="n">
-        <v>76513</v>
+        <v>73686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,40 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>450287.6033928538</v>
+        <v>450028.9954418801</v>
       </c>
       <c r="R2" t="n">
-        <v>7088146.756647575</v>
+        <v>7087822.919885547</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,29 +774,32 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110580308</v>
+        <v>89603513</v>
       </c>
       <c r="B3" t="n">
-        <v>89401</v>
+        <v>56395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,40 +812,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>450262.4304980583</v>
+        <v>450060.2126554123</v>
       </c>
       <c r="R3" t="n">
-        <v>7088143.635188881</v>
+        <v>7087679.78305334</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -869,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -879,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -887,35 +884,43 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110580220</v>
+        <v>89603521</v>
       </c>
       <c r="B4" t="n">
-        <v>73689</v>
+        <v>73678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,44 +929,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>308</v>
+        <v>6439</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>450318.5116387127</v>
+        <v>450028.9954418801</v>
       </c>
       <c r="R4" t="n">
-        <v>7088150.227421151</v>
+        <v>7087822.919885547</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -985,7 +987,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -995,7 +997,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1009,29 +1011,32 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110580497</v>
+        <v>89603523</v>
       </c>
       <c r="B5" t="n">
-        <v>73701</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,40 +1049,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1467</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>450284.6803151176</v>
+        <v>450044.8400147054</v>
       </c>
       <c r="R5" t="n">
-        <v>7088045.998939568</v>
+        <v>7087931.842652846</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1101,7 +1103,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1113,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-07-04</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1125,29 +1127,32 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111936824</v>
+        <v>89603525</v>
       </c>
       <c r="B6" t="n">
-        <v>56430</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,38 +1165,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Svartrun, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>450382</v>
+        <v>450388.1948410851</v>
       </c>
       <c r="R6" t="n">
-        <v>7088202</v>
+        <v>7087847.140456564</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1218,17 +1219,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1243,22 +1249,26 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111936820</v>
+        <v>110580228</v>
       </c>
       <c r="B7" t="n">
-        <v>56430</v>
+        <v>76513</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,41 +1281,40 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>314</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>450352</v>
+        <v>450287.6033928538</v>
       </c>
       <c r="R7" t="n">
-        <v>7088261</v>
+        <v>7088146.756647575</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1329,17 +1338,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1348,28 +1362,29 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111936880</v>
+        <v>110580308</v>
       </c>
       <c r="B8" t="n">
-        <v>89571</v>
+        <v>89401</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,37 +1397,40 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>450225</v>
+        <v>450262.4304980583</v>
       </c>
       <c r="R8" t="n">
-        <v>7088146</v>
+        <v>7088143.635188881</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1436,12 +1454,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1450,28 +1478,29 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111936828</v>
+        <v>110580220</v>
       </c>
       <c r="B9" t="n">
-        <v>56430</v>
+        <v>73689</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,41 +1513,40 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>308</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>450330</v>
+        <v>450318.5116387127</v>
       </c>
       <c r="R9" t="n">
-        <v>7088022</v>
+        <v>7088150.227421151</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1542,17 +1570,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1561,28 +1594,29 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936815</v>
+        <v>110580497</v>
       </c>
       <c r="B10" t="n">
-        <v>56430</v>
+        <v>73701</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1595,41 +1629,40 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>rörvattsbodarna, Jmt</t>
+          <t>Rörvattnet, Ansättån, Hotagen, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>450254</v>
+        <v>450284.6803151176</v>
       </c>
       <c r="R10" t="n">
-        <v>7088083</v>
+        <v>7088045.998939568</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1653,17 +1686,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1672,28 +1710,29 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936784</v>
+        <v>111936803</v>
       </c>
       <c r="B11" t="n">
-        <v>89517</v>
+        <v>56430</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1702,38 +1741,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>450334</v>
+        <v>449957</v>
       </c>
       <c r="R11" t="n">
-        <v>7088179</v>
+        <v>7088104</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1766,6 +1809,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1792,7 +1840,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936816</v>
+        <v>111936851</v>
       </c>
       <c r="B12" t="n">
         <v>56430</v>
@@ -1836,10 +1884,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>450284</v>
+        <v>449977</v>
       </c>
       <c r="R12" t="n">
-        <v>7088186</v>
+        <v>7087786</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1876,7 +1924,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2014,10 +2062,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936881</v>
+        <v>111936825</v>
       </c>
       <c r="B14" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2030,34 +2078,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>450283</v>
+        <v>450327</v>
       </c>
       <c r="R14" t="n">
-        <v>7088220</v>
+        <v>7088177</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2090,6 +2142,11 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2116,7 +2173,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936882</v>
+        <v>111936891</v>
       </c>
       <c r="B15" t="n">
         <v>89571</v>
@@ -2156,10 +2213,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>450302</v>
+        <v>450088</v>
       </c>
       <c r="R15" t="n">
-        <v>7088262</v>
+        <v>7087844</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2218,7 +2275,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936817</v>
+        <v>111936842</v>
       </c>
       <c r="B16" t="n">
         <v>56430</v>
@@ -2262,10 +2319,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>450279</v>
+        <v>450087</v>
       </c>
       <c r="R16" t="n">
-        <v>7088213</v>
+        <v>7087895</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2302,7 +2359,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2329,7 +2386,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936827</v>
+        <v>111936836</v>
       </c>
       <c r="B17" t="n">
         <v>56430</v>
@@ -2373,10 +2430,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>450310</v>
+        <v>450058</v>
       </c>
       <c r="R17" t="n">
-        <v>7088028</v>
+        <v>7087628</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2440,7 +2497,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936829</v>
+        <v>111936834</v>
       </c>
       <c r="B18" t="n">
         <v>56430</v>
@@ -2484,10 +2541,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>450355</v>
+        <v>450266</v>
       </c>
       <c r="R18" t="n">
-        <v>7088015</v>
+        <v>7087812</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2524,7 +2581,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2551,7 +2608,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936826</v>
+        <v>111936840</v>
       </c>
       <c r="B19" t="n">
         <v>56430</v>
@@ -2595,10 +2652,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>450286</v>
+        <v>450108</v>
       </c>
       <c r="R19" t="n">
-        <v>7088075</v>
+        <v>7087831</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2635,7 +2692,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2662,7 +2719,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936831</v>
+        <v>111936835</v>
       </c>
       <c r="B20" t="n">
         <v>56430</v>
@@ -2706,10 +2763,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>450354</v>
+        <v>450185</v>
       </c>
       <c r="R20" t="n">
-        <v>7088012</v>
+        <v>7087745</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2773,10 +2830,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936883</v>
+        <v>111936815</v>
       </c>
       <c r="B21" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2789,34 +2846,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>450282</v>
+        <v>450254</v>
       </c>
       <c r="R21" t="n">
-        <v>7088113</v>
+        <v>7088083</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2849,6 +2910,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2875,7 +2941,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111936825</v>
+        <v>111936807</v>
       </c>
       <c r="B22" t="n">
         <v>56430</v>
@@ -2919,10 +2985,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>450327</v>
+        <v>450003</v>
       </c>
       <c r="R22" t="n">
-        <v>7088177</v>
+        <v>7088105</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2986,10 +3052,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>89603526</v>
+        <v>111936887</v>
       </c>
       <c r="B23" t="n">
-        <v>73686</v>
+        <v>89571</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3002,34 +3068,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>308</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>450028.9954418801</v>
+        <v>450114</v>
       </c>
       <c r="R23" t="n">
-        <v>7087822.919885547</v>
+        <v>7087631</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3056,22 +3122,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3086,26 +3142,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>89603513</v>
+        <v>111936846</v>
       </c>
       <c r="B24" t="n">
-        <v>56395</v>
+        <v>56430</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3136,16 +3188,20 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>450060.2126554123</v>
+        <v>449994</v>
       </c>
       <c r="R24" t="n">
-        <v>7087679.78305334</v>
+        <v>7087723</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3172,27 +3228,17 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3207,26 +3253,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>89603521</v>
+        <v>111936883</v>
       </c>
       <c r="B25" t="n">
-        <v>73678</v>
+        <v>89571</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3235,38 +3277,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6439</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>450028.9954418801</v>
+        <v>450282</v>
       </c>
       <c r="R25" t="n">
-        <v>7087822.919885547</v>
+        <v>7088113</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3293,22 +3335,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3323,26 +3355,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>89603523</v>
+        <v>111936882</v>
       </c>
       <c r="B26" t="n">
-        <v>89410</v>
+        <v>89571</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3375,14 +3403,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>450044.8400147054</v>
+        <v>450302</v>
       </c>
       <c r="R26" t="n">
-        <v>7087931.842652846</v>
+        <v>7088262</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3409,22 +3437,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3439,26 +3457,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>89603525</v>
+        <v>111936806</v>
       </c>
       <c r="B27" t="n">
-        <v>77506</v>
+        <v>56430</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3471,34 +3485,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Svartrun, Jmt</t>
+          <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>450388.1948410851</v>
+        <v>449926</v>
       </c>
       <c r="R27" t="n">
-        <v>7087847.140456564</v>
+        <v>7088162</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3525,22 +3543,17 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3555,26 +3568,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111936884</v>
+        <v>111936824</v>
       </c>
       <c r="B28" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3587,34 +3596,38 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>450409</v>
+        <v>450382</v>
       </c>
       <c r="R28" t="n">
-        <v>7087882</v>
+        <v>7088202</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3647,6 +3660,11 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3673,7 +3691,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111936843</v>
+        <v>111936816</v>
       </c>
       <c r="B29" t="n">
         <v>56430</v>
@@ -3717,10 +3735,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>450061</v>
+        <v>450284</v>
       </c>
       <c r="R29" t="n">
-        <v>7087811</v>
+        <v>7088186</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3784,10 +3802,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111936885</v>
+        <v>111936810</v>
       </c>
       <c r="B30" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3800,34 +3818,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>450183</v>
+        <v>450077</v>
       </c>
       <c r="R30" t="n">
-        <v>7087782</v>
+        <v>7088074</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3860,6 +3882,11 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3886,10 +3913,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111936888</v>
+        <v>111936820</v>
       </c>
       <c r="B31" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3902,34 +3929,38 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>450117</v>
+        <v>450352</v>
       </c>
       <c r="R31" t="n">
-        <v>7087724</v>
+        <v>7088261</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3962,6 +3993,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3988,7 +4024,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111936803</v>
+        <v>111936814</v>
       </c>
       <c r="B32" t="n">
         <v>56430</v>
@@ -4032,10 +4068,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>449957</v>
+        <v>450115</v>
       </c>
       <c r="R32" t="n">
-        <v>7088104</v>
+        <v>7088076</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4099,10 +4135,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111936809</v>
+        <v>111936888</v>
       </c>
       <c r="B33" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4115,38 +4151,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>450019</v>
+        <v>450117</v>
       </c>
       <c r="R33" t="n">
-        <v>7088107</v>
+        <v>7087724</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4179,11 +4211,6 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4210,10 +4237,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111936813</v>
+        <v>111936880</v>
       </c>
       <c r="B34" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4226,38 +4253,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>450091</v>
+        <v>450225</v>
       </c>
       <c r="R34" t="n">
-        <v>7088086</v>
+        <v>7088146</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4290,11 +4313,6 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4321,7 +4339,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111936814</v>
+        <v>111936804</v>
       </c>
       <c r="B35" t="n">
         <v>56430</v>
@@ -4357,7 +4375,11 @@
       <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4365,10 +4387,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>450115</v>
+        <v>449911</v>
       </c>
       <c r="R35" t="n">
-        <v>7088076</v>
+        <v>7088174</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4405,7 +4427,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4432,10 +4454,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111936887</v>
+        <v>111936845</v>
       </c>
       <c r="B36" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4448,34 +4470,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>450114</v>
+        <v>449982</v>
       </c>
       <c r="R36" t="n">
-        <v>7087631</v>
+        <v>7087774</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4508,6 +4534,11 @@
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4534,10 +4565,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111936838</v>
+        <v>111936787</v>
       </c>
       <c r="B37" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4550,38 +4581,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>450065</v>
+        <v>449922</v>
       </c>
       <c r="R37" t="n">
-        <v>7087678</v>
+        <v>7088162</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4614,11 +4641,6 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4645,10 +4667,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111936890</v>
+        <v>111936832</v>
       </c>
       <c r="B38" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4661,34 +4683,38 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>450091</v>
+        <v>450286</v>
       </c>
       <c r="R38" t="n">
-        <v>7087906</v>
+        <v>7087829</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4721,6 +4747,11 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4747,7 +4778,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111936834</v>
+        <v>111936843</v>
       </c>
       <c r="B39" t="n">
         <v>56430</v>
@@ -4791,10 +4822,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>450266</v>
+        <v>450061</v>
       </c>
       <c r="R39" t="n">
-        <v>7087812</v>
+        <v>7087811</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4831,7 +4862,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4858,10 +4889,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111936847</v>
+        <v>111936890</v>
       </c>
       <c r="B40" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4874,38 +4905,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>449953</v>
+        <v>450091</v>
       </c>
       <c r="R40" t="n">
-        <v>7087533</v>
+        <v>7087906</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4938,11 +4965,6 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4969,10 +4991,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111936787</v>
+        <v>111936881</v>
       </c>
       <c r="B41" t="n">
-        <v>89553</v>
+        <v>89571</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4985,21 +5007,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5009,10 +5031,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>449922</v>
+        <v>450283</v>
       </c>
       <c r="R41" t="n">
-        <v>7088162</v>
+        <v>7088220</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5071,7 +5093,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111936839</v>
+        <v>111936809</v>
       </c>
       <c r="B42" t="n">
         <v>56430</v>
@@ -5115,10 +5137,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>450132</v>
+        <v>450019</v>
       </c>
       <c r="R42" t="n">
-        <v>7087763</v>
+        <v>7088107</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5155,7 +5177,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5182,7 +5204,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111936836</v>
+        <v>111936848</v>
       </c>
       <c r="B43" t="n">
         <v>56430</v>
@@ -5226,10 +5248,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>450058</v>
+        <v>449911</v>
       </c>
       <c r="R43" t="n">
-        <v>7087628</v>
+        <v>7087656</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5266,7 +5288,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5293,10 +5315,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111936837</v>
+        <v>111936784</v>
       </c>
       <c r="B44" t="n">
-        <v>56430</v>
+        <v>89517</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5305,42 +5327,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>450059</v>
+        <v>450334</v>
       </c>
       <c r="R44" t="n">
-        <v>7087644</v>
+        <v>7088179</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5373,11 +5391,6 @@
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5404,7 +5417,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111936846</v>
+        <v>111936828</v>
       </c>
       <c r="B45" t="n">
         <v>56430</v>
@@ -5448,10 +5461,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>449994</v>
+        <v>450330</v>
       </c>
       <c r="R45" t="n">
-        <v>7087723</v>
+        <v>7088022</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5515,10 +5528,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111936842</v>
+        <v>111936889</v>
       </c>
       <c r="B46" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5531,38 +5544,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>450087</v>
+        <v>450085</v>
       </c>
       <c r="R46" t="n">
-        <v>7087895</v>
+        <v>7087870</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5595,11 +5604,6 @@
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5626,10 +5630,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111936886</v>
+        <v>111936850</v>
       </c>
       <c r="B47" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5642,34 +5646,38 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>450161</v>
+        <v>449960</v>
       </c>
       <c r="R47" t="n">
-        <v>7087694</v>
+        <v>7087778</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5702,6 +5710,11 @@
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5728,7 +5741,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111936807</v>
+        <v>111936829</v>
       </c>
       <c r="B48" t="n">
         <v>56430</v>
@@ -5772,10 +5785,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>450003</v>
+        <v>450355</v>
       </c>
       <c r="R48" t="n">
-        <v>7088105</v>
+        <v>7088015</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5839,7 +5852,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111936835</v>
+        <v>111936831</v>
       </c>
       <c r="B49" t="n">
         <v>56430</v>
@@ -5883,10 +5896,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>450185</v>
+        <v>450354</v>
       </c>
       <c r="R49" t="n">
-        <v>7087745</v>
+        <v>7088012</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5950,7 +5963,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111936810</v>
+        <v>111936817</v>
       </c>
       <c r="B50" t="n">
         <v>56430</v>
@@ -5994,10 +6007,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>450077</v>
+        <v>450279</v>
       </c>
       <c r="R50" t="n">
-        <v>7088074</v>
+        <v>7088213</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6061,10 +6074,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111936850</v>
+        <v>111936886</v>
       </c>
       <c r="B51" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6077,38 +6090,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>449960</v>
+        <v>450161</v>
       </c>
       <c r="R51" t="n">
-        <v>7087778</v>
+        <v>7087694</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6141,11 +6150,6 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6172,7 +6176,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111936806</v>
+        <v>111936805</v>
       </c>
       <c r="B52" t="n">
         <v>56430</v>
@@ -6216,10 +6220,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>449926</v>
+        <v>449946</v>
       </c>
       <c r="R52" t="n">
-        <v>7088162</v>
+        <v>7088179</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6256,7 +6260,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6283,7 +6287,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111936811</v>
+        <v>111936847</v>
       </c>
       <c r="B53" t="n">
         <v>56430</v>
@@ -6327,10 +6331,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>450080</v>
+        <v>449953</v>
       </c>
       <c r="R53" t="n">
-        <v>7088091</v>
+        <v>7087533</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6367,7 +6371,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6394,7 +6398,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111936804</v>
+        <v>111936844</v>
       </c>
       <c r="B54" t="n">
         <v>56430</v>
@@ -6430,11 +6434,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>449911</v>
+        <v>450042</v>
       </c>
       <c r="R54" t="n">
-        <v>7088174</v>
+        <v>7087785</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6509,7 +6509,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111936840</v>
+        <v>111936826</v>
       </c>
       <c r="B55" t="n">
         <v>56430</v>
@@ -6553,10 +6553,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>450108</v>
+        <v>450286</v>
       </c>
       <c r="R55" t="n">
-        <v>7087831</v>
+        <v>7088075</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6620,7 +6620,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111936889</v>
+        <v>111936884</v>
       </c>
       <c r="B56" t="n">
         <v>89571</v>
@@ -6660,10 +6660,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>450085</v>
+        <v>450409</v>
       </c>
       <c r="R56" t="n">
-        <v>7087870</v>
+        <v>7087882</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111936805</v>
+        <v>111936813</v>
       </c>
       <c r="B57" t="n">
         <v>56430</v>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>449946</v>
+        <v>450091</v>
       </c>
       <c r="R57" t="n">
-        <v>7088179</v>
+        <v>7088086</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111936832</v>
+        <v>111936811</v>
       </c>
       <c r="B58" t="n">
         <v>56430</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>450286</v>
+        <v>450080</v>
       </c>
       <c r="R58" t="n">
-        <v>7087829</v>
+        <v>7088091</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6944,7 +6944,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111936851</v>
+        <v>111936839</v>
       </c>
       <c r="B59" t="n">
         <v>56430</v>
@@ -6988,10 +6988,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>449977</v>
+        <v>450132</v>
       </c>
       <c r="R59" t="n">
-        <v>7087786</v>
+        <v>7087763</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111936848</v>
+        <v>111936849</v>
       </c>
       <c r="B60" t="n">
         <v>56430</v>
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>449911</v>
+        <v>449924</v>
       </c>
       <c r="R60" t="n">
-        <v>7087656</v>
+        <v>7087660</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7166,7 +7166,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111936849</v>
+        <v>111936837</v>
       </c>
       <c r="B61" t="n">
         <v>56430</v>
@@ -7210,10 +7210,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>449924</v>
+        <v>450059</v>
       </c>
       <c r="R61" t="n">
-        <v>7087660</v>
+        <v>7087644</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7277,7 +7277,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111936891</v>
+        <v>111936885</v>
       </c>
       <c r="B62" t="n">
         <v>89571</v>
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>450088</v>
+        <v>450183</v>
       </c>
       <c r="R62" t="n">
-        <v>7087844</v>
+        <v>7087782</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111936844</v>
+        <v>111936827</v>
       </c>
       <c r="B63" t="n">
         <v>56430</v>
@@ -7423,10 +7423,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>450042</v>
+        <v>450310</v>
       </c>
       <c r="R63" t="n">
-        <v>7087785</v>
+        <v>7088028</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111936845</v>
+        <v>111936838</v>
       </c>
       <c r="B64" t="n">
         <v>56430</v>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>449982</v>
+        <v>450065</v>
       </c>
       <c r="R64" t="n">
-        <v>7087774</v>
+        <v>7087678</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
